--- a/public/media/workbooks/overview_newConfirmed.xlsx
+++ b/public/media/workbooks/overview_newConfirmed.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D625"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -401,427 +401,8729 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>26-09-2021</v>
+        <v>12-02-2020</v>
       </c>
       <c r="B3">
-        <v>3873</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5758</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>1267110</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>27-09-2021</v>
+        <v>13-02-2020</v>
       </c>
       <c r="B4">
-        <v>5240</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>5376</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>1272350</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>28-09-2021</v>
+        <v>14-02-2020</v>
       </c>
       <c r="B5">
-        <v>2438</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4865</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1274788</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>29-09-2021</v>
+        <v>15-02-2020</v>
       </c>
       <c r="B6">
-        <v>3630</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4523</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1278418</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>30-09-2021</v>
+        <v>16-02-2020</v>
       </c>
       <c r="B7">
-        <v>4393</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>4181</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1282811</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>01-10-2021</v>
+        <v>17-02-2020</v>
       </c>
       <c r="B8">
-        <v>3622</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>3887</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1286433</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>02-10-2021</v>
+        <v>18-02-2020</v>
       </c>
       <c r="B9">
-        <v>1739</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>3692</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>1288172</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>03-10-2021</v>
+        <v>19-02-2020</v>
       </c>
       <c r="B10">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>3562</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1290872</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>04-10-2021</v>
+        <v>20-02-2020</v>
       </c>
       <c r="B11">
-        <v>3273</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>3394</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1294145</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>05-10-2021</v>
+        <v>21-02-2020</v>
       </c>
       <c r="B12">
-        <v>2551</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>3113</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1296696</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>06-10-2021</v>
+        <v>22-02-2020</v>
       </c>
       <c r="B13">
-        <v>2424</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>3129</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1299120</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>07-10-2021</v>
+        <v>23-02-2020</v>
       </c>
       <c r="B14">
-        <v>2117</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>2957</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1301237</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>08-10-2021</v>
+        <v>24-02-2020</v>
       </c>
       <c r="B15">
-        <v>2023</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>2632</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1303260</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>09-10-2021</v>
+        <v>25-02-2020</v>
       </c>
       <c r="B16">
-        <v>1039</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>2403</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1304299</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>10-10-2021</v>
+        <v>26-02-2020</v>
       </c>
       <c r="B17">
-        <v>1492</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>2303</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1305791</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>11-10-2021</v>
+        <v>27-02-2020</v>
       </c>
       <c r="B18">
-        <v>2344</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>2131</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1308135</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>12-10-2021</v>
+        <v>28-02-2020</v>
       </c>
       <c r="B19">
-        <v>1817</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>1998</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1309952</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>13-10-2021</v>
+        <v>29-02-2020</v>
       </c>
       <c r="B20">
-        <v>1770</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>1893</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1311722</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>14-10-2021</v>
+        <v>01-03-2020</v>
       </c>
       <c r="B21">
-        <v>1346</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1313068</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>15-10-2021</v>
+        <v>02-03-2020</v>
       </c>
       <c r="B22">
-        <v>1573</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>1690</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1314641</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>16-10-2021</v>
+        <v>03-03-2020</v>
       </c>
       <c r="B23">
-        <v>740</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>1625</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>1315381</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>17-10-2021</v>
+        <v>04-03-2020</v>
       </c>
       <c r="B24">
-        <v>1223</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>1583</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>1316604</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>18-10-2021</v>
+        <v>05-03-2020</v>
       </c>
       <c r="B25">
-        <v>1501</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>1544</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>1318105</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>19-10-2021</v>
+        <v>06-03-2020</v>
       </c>
       <c r="B26">
-        <v>1147</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>1424</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>1319252</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>20-10-2021</v>
+        <v>07-03-2020</v>
       </c>
       <c r="B27">
-        <v>1037</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>1328</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>1320289</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>21-10-2021</v>
+        <v>08-03-2020</v>
       </c>
       <c r="B28">
-        <v>991</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>1223</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>1321280</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>22-10-2021</v>
+        <v>09-03-2020</v>
       </c>
       <c r="B29">
-        <v>981</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>1173</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>1322261</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>23-10-2021</v>
+        <v>10-03-2020</v>
       </c>
       <c r="B30">
-        <v>331</v>
+        <v>33</v>
       </c>
       <c r="C30">
-        <v>1088</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>1322592</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>24-10-2021</v>
+        <v>11-03-2020</v>
       </c>
       <c r="B31">
-        <v>810</v>
+        <v>19</v>
       </c>
       <c r="C31">
-        <v>1030</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>1323402</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
+        <v>12-03-2020</v>
+      </c>
+      <c r="B32">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>13-03-2020</v>
+      </c>
+      <c r="B33">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>14-03-2020</v>
+      </c>
+      <c r="B34">
+        <v>29</v>
+      </c>
+      <c r="C34">
+        <v>18</v>
+      </c>
+      <c r="D34">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>15-03-2020</v>
+      </c>
+      <c r="B35">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>16-03-2020</v>
+      </c>
+      <c r="B36">
+        <v>73</v>
+      </c>
+      <c r="C36">
+        <v>26</v>
+      </c>
+      <c r="D36">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>17-03-2020</v>
+      </c>
+      <c r="B37">
+        <v>94</v>
+      </c>
+      <c r="C37">
+        <v>35</v>
+      </c>
+      <c r="D37">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>18-03-2020</v>
+      </c>
+      <c r="B38">
+        <v>124</v>
+      </c>
+      <c r="C38">
+        <v>44</v>
+      </c>
+      <c r="D38">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>19-03-2020</v>
+      </c>
+      <c r="B39">
+        <v>136</v>
+      </c>
+      <c r="C39">
+        <v>59</v>
+      </c>
+      <c r="D39">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>20-03-2020</v>
+      </c>
+      <c r="B40">
+        <v>168</v>
+      </c>
+      <c r="C40">
+        <v>75</v>
+      </c>
+      <c r="D40">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>21-03-2020</v>
+      </c>
+      <c r="B41">
+        <v>211</v>
+      </c>
+      <c r="C41">
+        <v>94</v>
+      </c>
+      <c r="D41">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>22-03-2020</v>
+      </c>
+      <c r="B42">
+        <v>253</v>
+      </c>
+      <c r="C42">
+        <v>120</v>
+      </c>
+      <c r="D42">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>23-03-2020</v>
+      </c>
+      <c r="B43">
+        <v>352</v>
+      </c>
+      <c r="C43">
+        <v>151</v>
+      </c>
+      <c r="D43">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>24-03-2020</v>
+      </c>
+      <c r="B44">
+        <v>423</v>
+      </c>
+      <c r="C44">
+        <v>191</v>
+      </c>
+      <c r="D44">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>25-03-2020</v>
+      </c>
+      <c r="B45">
+        <v>424</v>
+      </c>
+      <c r="C45">
+        <v>238</v>
+      </c>
+      <c r="D45">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>26-03-2020</v>
+      </c>
+      <c r="B46">
+        <v>520</v>
+      </c>
+      <c r="C46">
+        <v>281</v>
+      </c>
+      <c r="D46">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>27-03-2020</v>
+      </c>
+      <c r="B47">
+        <v>434</v>
+      </c>
+      <c r="C47">
+        <v>335</v>
+      </c>
+      <c r="D47">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>28-03-2020</v>
+      </c>
+      <c r="B48">
+        <v>480</v>
+      </c>
+      <c r="C48">
+        <v>373</v>
+      </c>
+      <c r="D48">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>29-03-2020</v>
+      </c>
+      <c r="B49">
+        <v>531</v>
+      </c>
+      <c r="C49">
+        <v>412</v>
+      </c>
+      <c r="D49">
+        <v>4453</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>30-03-2020</v>
+      </c>
+      <c r="B50">
+        <v>548</v>
+      </c>
+      <c r="C50">
+        <v>452</v>
+      </c>
+      <c r="D50">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>31-03-2020</v>
+      </c>
+      <c r="B51">
+        <v>739</v>
+      </c>
+      <c r="C51">
+        <v>480</v>
+      </c>
+      <c r="D51">
+        <v>5740</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>01-04-2020</v>
+      </c>
+      <c r="B52">
+        <v>703</v>
+      </c>
+      <c r="C52">
+        <v>525</v>
+      </c>
+      <c r="D52">
+        <v>6436</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>02-04-2020</v>
+      </c>
+      <c r="B53">
+        <v>722</v>
+      </c>
+      <c r="C53">
+        <v>564</v>
+      </c>
+      <c r="D53">
+        <v>7158</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>03-04-2020</v>
+      </c>
+      <c r="B54">
+        <v>601</v>
+      </c>
+      <c r="C54">
+        <v>592</v>
+      </c>
+      <c r="D54">
+        <v>7759</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>04-04-2020</v>
+      </c>
+      <c r="B55">
+        <v>429</v>
+      </c>
+      <c r="C55">
+        <v>616</v>
+      </c>
+      <c r="D55">
+        <v>8188</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>05-04-2020</v>
+      </c>
+      <c r="B56">
+        <v>585</v>
+      </c>
+      <c r="C56">
+        <v>609</v>
+      </c>
+      <c r="D56">
+        <v>8773</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>06-04-2020</v>
+      </c>
+      <c r="B57">
+        <v>451</v>
+      </c>
+      <c r="C57">
+        <v>617</v>
+      </c>
+      <c r="D57">
+        <v>9224</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>07-04-2020</v>
+      </c>
+      <c r="B58">
+        <v>377</v>
+      </c>
+      <c r="C58">
+        <v>603</v>
+      </c>
+      <c r="D58">
+        <v>9601</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>08-04-2020</v>
+      </c>
+      <c r="B59">
+        <v>341</v>
+      </c>
+      <c r="C59">
+        <v>551</v>
+      </c>
+      <c r="D59">
+        <v>9942</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>09-04-2020</v>
+      </c>
+      <c r="B60">
+        <v>342</v>
+      </c>
+      <c r="C60">
+        <v>500</v>
+      </c>
+      <c r="D60">
+        <v>10284</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>10-04-2020</v>
+      </c>
+      <c r="B61">
+        <v>359</v>
+      </c>
+      <c r="C61">
+        <v>446</v>
+      </c>
+      <c r="D61">
+        <v>10643</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>11-04-2020</v>
+      </c>
+      <c r="B62">
+        <v>343</v>
+      </c>
+      <c r="C62">
+        <v>412</v>
+      </c>
+      <c r="D62">
+        <v>10986</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>12-04-2020</v>
+      </c>
+      <c r="B63">
+        <v>552</v>
+      </c>
+      <c r="C63">
+        <v>399</v>
+      </c>
+      <c r="D63">
+        <v>11538</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>13-04-2020</v>
+      </c>
+      <c r="B64">
+        <v>438</v>
+      </c>
+      <c r="C64">
+        <v>395</v>
+      </c>
+      <c r="D64">
+        <v>11976</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>14-04-2020</v>
+      </c>
+      <c r="B65">
+        <v>399</v>
+      </c>
+      <c r="C65">
+        <v>393</v>
+      </c>
+      <c r="D65">
+        <v>12375</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>15-04-2020</v>
+      </c>
+      <c r="B66">
+        <v>311</v>
+      </c>
+      <c r="C66">
+        <v>396</v>
+      </c>
+      <c r="D66">
+        <v>12686</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>16-04-2020</v>
+      </c>
+      <c r="B67">
+        <v>297</v>
+      </c>
+      <c r="C67">
+        <v>392</v>
+      </c>
+      <c r="D67">
+        <v>12983</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>17-04-2020</v>
+      </c>
+      <c r="B68">
+        <v>298</v>
+      </c>
+      <c r="C68">
+        <v>385</v>
+      </c>
+      <c r="D68">
+        <v>13281</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>18-04-2020</v>
+      </c>
+      <c r="B69">
+        <v>290</v>
+      </c>
+      <c r="C69">
+        <v>376</v>
+      </c>
+      <c r="D69">
+        <v>13571</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>19-04-2020</v>
+      </c>
+      <c r="B70">
+        <v>276</v>
+      </c>
+      <c r="C70">
+        <v>369</v>
+      </c>
+      <c r="D70">
+        <v>13847</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>20-04-2020</v>
+      </c>
+      <c r="B71">
+        <v>298</v>
+      </c>
+      <c r="C71">
+        <v>329</v>
+      </c>
+      <c r="D71">
+        <v>14145</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>21-04-2020</v>
+      </c>
+      <c r="B72">
+        <v>282</v>
+      </c>
+      <c r="C72">
+        <v>309</v>
+      </c>
+      <c r="D72">
+        <v>14427</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>22-04-2020</v>
+      </c>
+      <c r="B73">
+        <v>226</v>
+      </c>
+      <c r="C73">
+        <v>293</v>
+      </c>
+      <c r="D73">
+        <v>14653</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>23-04-2020</v>
+      </c>
+      <c r="B74">
+        <v>276</v>
+      </c>
+      <c r="C74">
+        <v>281</v>
+      </c>
+      <c r="D74">
+        <v>14929</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>24-04-2020</v>
+      </c>
+      <c r="B75">
+        <v>249</v>
+      </c>
+      <c r="C75">
+        <v>278</v>
+      </c>
+      <c r="D75">
+        <v>15178</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>25-04-2020</v>
+      </c>
+      <c r="B76">
+        <v>159</v>
+      </c>
+      <c r="C76">
+        <v>271</v>
+      </c>
+      <c r="D76">
+        <v>15337</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>26-04-2020</v>
+      </c>
+      <c r="B77">
+        <v>82</v>
+      </c>
+      <c r="C77">
+        <v>252</v>
+      </c>
+      <c r="D77">
+        <v>15419</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>27-04-2020</v>
+      </c>
+      <c r="B78">
+        <v>127</v>
+      </c>
+      <c r="C78">
+        <v>224</v>
+      </c>
+      <c r="D78">
+        <v>15546</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>28-04-2020</v>
+      </c>
+      <c r="B79">
+        <v>161</v>
+      </c>
+      <c r="C79">
+        <v>200</v>
+      </c>
+      <c r="D79">
+        <v>15707</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>29-04-2020</v>
+      </c>
+      <c r="B80">
+        <v>82</v>
+      </c>
+      <c r="C80">
+        <v>182</v>
+      </c>
+      <c r="D80">
+        <v>15789</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>30-04-2020</v>
+      </c>
+      <c r="B81">
+        <v>143</v>
+      </c>
+      <c r="C81">
+        <v>162</v>
+      </c>
+      <c r="D81">
+        <v>15932</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>01-05-2020</v>
+      </c>
+      <c r="B82">
+        <v>116</v>
+      </c>
+      <c r="C82">
+        <v>143</v>
+      </c>
+      <c r="D82">
+        <v>16048</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>02-05-2020</v>
+      </c>
+      <c r="B83">
+        <v>57</v>
+      </c>
+      <c r="C83">
+        <v>124</v>
+      </c>
+      <c r="D83">
+        <v>16105</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>03-05-2020</v>
+      </c>
+      <c r="B84">
+        <v>27</v>
+      </c>
+      <c r="C84">
+        <v>109</v>
+      </c>
+      <c r="D84">
+        <v>16132</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>04-05-2020</v>
+      </c>
+      <c r="B85">
+        <v>55</v>
+      </c>
+      <c r="C85">
+        <v>101</v>
+      </c>
+      <c r="D85">
+        <v>16187</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>05-05-2020</v>
+      </c>
+      <c r="B86">
+        <v>33</v>
+      </c>
+      <c r="C86">
+        <v>91</v>
+      </c>
+      <c r="D86">
+        <v>16220</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>06-05-2020</v>
+      </c>
+      <c r="B87">
+        <v>65</v>
+      </c>
+      <c r="C87">
+        <v>73</v>
+      </c>
+      <c r="D87">
+        <v>16285</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>07-05-2020</v>
+      </c>
+      <c r="B88">
+        <v>61</v>
+      </c>
+      <c r="C88">
+        <v>70</v>
+      </c>
+      <c r="D88">
+        <v>16346</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>08-05-2020</v>
+      </c>
+      <c r="B89">
+        <v>33</v>
+      </c>
+      <c r="C89">
+        <v>59</v>
+      </c>
+      <c r="D89">
+        <v>16379</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>09-05-2020</v>
+      </c>
+      <c r="B90">
+        <v>20</v>
+      </c>
+      <c r="C90">
+        <v>47</v>
+      </c>
+      <c r="D90">
+        <v>16399</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>10-05-2020</v>
+      </c>
+      <c r="B91">
+        <v>29</v>
+      </c>
+      <c r="C91">
+        <v>42</v>
+      </c>
+      <c r="D91">
+        <v>16428</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>11-05-2020</v>
+      </c>
+      <c r="B92">
+        <v>39</v>
+      </c>
+      <c r="C92">
+        <v>42</v>
+      </c>
+      <c r="D92">
+        <v>16467</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>12-05-2020</v>
+      </c>
+      <c r="B93">
+        <v>23</v>
+      </c>
+      <c r="C93">
+        <v>40</v>
+      </c>
+      <c r="D93">
+        <v>16490</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>13-05-2020</v>
+      </c>
+      <c r="B94">
+        <v>39</v>
+      </c>
+      <c r="C94">
+        <v>38</v>
+      </c>
+      <c r="D94">
+        <v>16529</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>14-05-2020</v>
+      </c>
+      <c r="B95">
+        <v>22</v>
+      </c>
+      <c r="C95">
+        <v>34</v>
+      </c>
+      <c r="D95">
+        <v>16551</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>15-05-2020</v>
+      </c>
+      <c r="B96">
+        <v>12</v>
+      </c>
+      <c r="C96">
+        <v>29</v>
+      </c>
+      <c r="D96">
+        <v>16563</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>16-05-2020</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>26</v>
+      </c>
+      <c r="D97">
+        <v>16568</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>17-05-2020</v>
+      </c>
+      <c r="B98">
+        <v>15</v>
+      </c>
+      <c r="C98">
+        <v>24</v>
+      </c>
+      <c r="D98">
+        <v>16583</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>18-05-2020</v>
+      </c>
+      <c r="B99">
+        <v>27</v>
+      </c>
+      <c r="C99">
+        <v>22</v>
+      </c>
+      <c r="D99">
+        <v>16610</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>19-05-2020</v>
+      </c>
+      <c r="B100">
+        <v>22</v>
+      </c>
+      <c r="C100">
+        <v>20</v>
+      </c>
+      <c r="D100">
+        <v>16632</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>20-05-2020</v>
+      </c>
+      <c r="B101">
+        <v>15</v>
+      </c>
+      <c r="C101">
+        <v>20</v>
+      </c>
+      <c r="D101">
+        <v>16647</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>21-05-2020</v>
+      </c>
+      <c r="B102">
+        <v>17</v>
+      </c>
+      <c r="C102">
+        <v>16</v>
+      </c>
+      <c r="D102">
+        <v>16664</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>22-05-2020</v>
+      </c>
+      <c r="B103">
+        <v>19</v>
+      </c>
+      <c r="C103">
+        <v>16</v>
+      </c>
+      <c r="D103">
+        <v>16683</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>23-05-2020</v>
+      </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>17</v>
+      </c>
+      <c r="D104">
+        <v>16688</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>24-05-2020</v>
+      </c>
+      <c r="B105">
+        <v>13</v>
+      </c>
+      <c r="C105">
+        <v>17</v>
+      </c>
+      <c r="D105">
+        <v>16701</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>25-05-2020</v>
+      </c>
+      <c r="B106">
+        <v>22</v>
+      </c>
+      <c r="C106">
+        <v>16</v>
+      </c>
+      <c r="D106">
+        <v>16723</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>26-05-2020</v>
+      </c>
+      <c r="B107">
+        <v>50</v>
+      </c>
+      <c r="C107">
+        <v>16</v>
+      </c>
+      <c r="D107">
+        <v>16773</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>27-05-2020</v>
+      </c>
+      <c r="B108">
+        <v>40</v>
+      </c>
+      <c r="C108">
+        <v>20</v>
+      </c>
+      <c r="D108">
+        <v>16813</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>28-05-2020</v>
+      </c>
+      <c r="B109">
+        <v>77</v>
+      </c>
+      <c r="C109">
+        <v>23</v>
+      </c>
+      <c r="D109">
+        <v>16890</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>29-05-2020</v>
+      </c>
+      <c r="B110">
+        <v>113</v>
+      </c>
+      <c r="C110">
+        <v>32</v>
+      </c>
+      <c r="D110">
+        <v>17003</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>30-05-2020</v>
+      </c>
+      <c r="B111">
+        <v>29</v>
+      </c>
+      <c r="C111">
+        <v>45</v>
+      </c>
+      <c r="D111">
+        <v>17032</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>31-05-2020</v>
+      </c>
+      <c r="B112">
+        <v>87</v>
+      </c>
+      <c r="C112">
+        <v>49</v>
+      </c>
+      <c r="D112">
+        <v>17119</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>01-06-2020</v>
+      </c>
+      <c r="B113">
+        <v>100</v>
+      </c>
+      <c r="C113">
+        <v>59</v>
+      </c>
+      <c r="D113">
+        <v>17219</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>02-06-2020</v>
+      </c>
+      <c r="B114">
+        <v>121</v>
+      </c>
+      <c r="C114">
+        <v>70</v>
+      </c>
+      <c r="D114">
+        <v>17340</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>03-06-2020</v>
+      </c>
+      <c r="B115">
+        <v>97</v>
+      </c>
+      <c r="C115">
+        <v>81</v>
+      </c>
+      <c r="D115">
+        <v>17437</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>04-06-2020</v>
+      </c>
+      <c r="B116">
+        <v>142</v>
+      </c>
+      <c r="C116">
+        <v>89</v>
+      </c>
+      <c r="D116">
+        <v>17579</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>05-06-2020</v>
+      </c>
+      <c r="B117">
+        <v>127</v>
+      </c>
+      <c r="C117">
+        <v>98</v>
+      </c>
+      <c r="D117">
+        <v>17706</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>06-06-2020</v>
+      </c>
+      <c r="B118">
+        <v>78</v>
+      </c>
+      <c r="C118">
+        <v>100</v>
+      </c>
+      <c r="D118">
+        <v>17784</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>07-06-2020</v>
+      </c>
+      <c r="B119">
+        <v>139</v>
+      </c>
+      <c r="C119">
+        <v>107</v>
+      </c>
+      <c r="D119">
+        <v>17923</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>08-06-2020</v>
+      </c>
+      <c r="B120">
+        <v>179</v>
+      </c>
+      <c r="C120">
+        <v>114</v>
+      </c>
+      <c r="D120">
+        <v>18102</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>09-06-2020</v>
+      </c>
+      <c r="B121">
+        <v>174</v>
+      </c>
+      <c r="C121">
+        <v>126</v>
+      </c>
+      <c r="D121">
+        <v>18276</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>10-06-2020</v>
+      </c>
+      <c r="B122">
+        <v>241</v>
+      </c>
+      <c r="C122">
+        <v>133</v>
+      </c>
+      <c r="D122">
+        <v>18517</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>11-06-2020</v>
+      </c>
+      <c r="B123">
+        <v>191</v>
+      </c>
+      <c r="C123">
+        <v>154</v>
+      </c>
+      <c r="D123">
+        <v>18708</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>12-06-2020</v>
+      </c>
+      <c r="B124">
+        <v>184</v>
+      </c>
+      <c r="C124">
+        <v>161</v>
+      </c>
+      <c r="D124">
+        <v>18892</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>13-06-2020</v>
+      </c>
+      <c r="B125">
+        <v>148</v>
+      </c>
+      <c r="C125">
+        <v>169</v>
+      </c>
+      <c r="D125">
+        <v>19040</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>14-06-2020</v>
+      </c>
+      <c r="B126">
+        <v>134</v>
+      </c>
+      <c r="C126">
+        <v>179</v>
+      </c>
+      <c r="D126">
+        <v>19174</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>15-06-2020</v>
+      </c>
+      <c r="B127">
+        <v>200</v>
+      </c>
+      <c r="C127">
+        <v>178</v>
+      </c>
+      <c r="D127">
+        <v>19374</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>16-06-2020</v>
+      </c>
+      <c r="B128">
+        <v>299</v>
+      </c>
+      <c r="C128">
+        <v>181</v>
+      </c>
+      <c r="D128">
+        <v>19673</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>17-06-2020</v>
+      </c>
+      <c r="B129">
+        <v>270</v>
+      </c>
+      <c r="C129">
+        <v>199</v>
+      </c>
+      <c r="D129">
+        <v>19943</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>18-06-2020</v>
+      </c>
+      <c r="B130">
+        <v>303</v>
+      </c>
+      <c r="C130">
+        <v>203</v>
+      </c>
+      <c r="D130">
+        <v>20246</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>19-06-2020</v>
+      </c>
+      <c r="B131">
+        <v>310</v>
+      </c>
+      <c r="C131">
+        <v>219</v>
+      </c>
+      <c r="D131">
+        <v>20556</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>20-06-2020</v>
+      </c>
+      <c r="B132">
+        <v>161</v>
+      </c>
+      <c r="C132">
+        <v>237</v>
+      </c>
+      <c r="D132">
+        <v>20717</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>21-06-2020</v>
+      </c>
+      <c r="B133">
+        <v>174</v>
+      </c>
+      <c r="C133">
+        <v>239</v>
+      </c>
+      <c r="D133">
+        <v>20891</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>22-06-2020</v>
+      </c>
+      <c r="B134">
+        <v>343</v>
+      </c>
+      <c r="C134">
+        <v>245</v>
+      </c>
+      <c r="D134">
+        <v>21234</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>23-06-2020</v>
+      </c>
+      <c r="B135">
+        <v>453</v>
+      </c>
+      <c r="C135">
+        <v>265</v>
+      </c>
+      <c r="D135">
+        <v>21687</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>24-06-2020</v>
+      </c>
+      <c r="B136">
+        <v>487</v>
+      </c>
+      <c r="C136">
+        <v>287</v>
+      </c>
+      <c r="D136">
+        <v>22174</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>25-06-2020</v>
+      </c>
+      <c r="B137">
+        <v>516</v>
+      </c>
+      <c r="C137">
+        <v>318</v>
+      </c>
+      <c r="D137">
+        <v>22690</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>26-06-2020</v>
+      </c>
+      <c r="B138">
+        <v>463</v>
+      </c>
+      <c r="C138">
+        <v>349</v>
+      </c>
+      <c r="D138">
+        <v>23153</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>27-06-2020</v>
+      </c>
+      <c r="B139">
+        <v>398</v>
+      </c>
+      <c r="C139">
+        <v>371</v>
+      </c>
+      <c r="D139">
+        <v>23551</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>28-06-2020</v>
+      </c>
+      <c r="B140">
+        <v>385</v>
+      </c>
+      <c r="C140">
+        <v>404</v>
+      </c>
+      <c r="D140">
+        <v>23936</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>29-06-2020</v>
+      </c>
+      <c r="B141">
+        <v>757</v>
+      </c>
+      <c r="C141">
+        <v>435</v>
+      </c>
+      <c r="D141">
+        <v>24693</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>30-06-2020</v>
+      </c>
+      <c r="B142">
+        <v>789</v>
+      </c>
+      <c r="C142">
+        <v>494</v>
+      </c>
+      <c r="D142">
+        <v>25482</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>01-07-2020</v>
+      </c>
+      <c r="B143">
+        <v>970</v>
+      </c>
+      <c r="C143">
+        <v>542</v>
+      </c>
+      <c r="D143">
+        <v>26452</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>02-07-2020</v>
+      </c>
+      <c r="B144">
+        <v>1149</v>
+      </c>
+      <c r="C144">
+        <v>611</v>
+      </c>
+      <c r="D144">
+        <v>27601</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>03-07-2020</v>
+      </c>
+      <c r="B145">
+        <v>942</v>
+      </c>
+      <c r="C145">
+        <v>701</v>
+      </c>
+      <c r="D145">
+        <v>28543</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>04-07-2020</v>
+      </c>
+      <c r="B146">
+        <v>821</v>
+      </c>
+      <c r="C146">
+        <v>770</v>
+      </c>
+      <c r="D146">
+        <v>29364</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>05-07-2020</v>
+      </c>
+      <c r="B147">
+        <v>830</v>
+      </c>
+      <c r="C147">
+        <v>830</v>
+      </c>
+      <c r="D147">
+        <v>30194</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>06-07-2020</v>
+      </c>
+      <c r="B148">
+        <v>1133</v>
+      </c>
+      <c r="C148">
+        <v>894</v>
+      </c>
+      <c r="D148">
+        <v>31327</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>07-07-2020</v>
+      </c>
+      <c r="B149">
+        <v>1387</v>
+      </c>
+      <c r="C149">
+        <v>947</v>
+      </c>
+      <c r="D149">
+        <v>32714</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>08-07-2020</v>
+      </c>
+      <c r="B150">
+        <v>1326</v>
+      </c>
+      <c r="C150">
+        <v>1033</v>
+      </c>
+      <c r="D150">
+        <v>34040</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>09-07-2020</v>
+      </c>
+      <c r="B151">
+        <v>1522</v>
+      </c>
+      <c r="C151">
+        <v>1084</v>
+      </c>
+      <c r="D151">
+        <v>35562</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>10-07-2020</v>
+      </c>
+      <c r="B152">
+        <v>1407</v>
+      </c>
+      <c r="C152">
+        <v>1137</v>
+      </c>
+      <c r="D152">
+        <v>36969</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>11-07-2020</v>
+      </c>
+      <c r="B153">
+        <v>1168</v>
+      </c>
+      <c r="C153">
+        <v>1203</v>
+      </c>
+      <c r="D153">
+        <v>38137</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>12-07-2020</v>
+      </c>
+      <c r="B154">
+        <v>1238</v>
+      </c>
+      <c r="C154">
+        <v>1253</v>
+      </c>
+      <c r="D154">
+        <v>39375</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>13-07-2020</v>
+      </c>
+      <c r="B155">
+        <v>1717</v>
+      </c>
+      <c r="C155">
+        <v>1311</v>
+      </c>
+      <c r="D155">
+        <v>41092</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>14-07-2020</v>
+      </c>
+      <c r="B156">
+        <v>1601</v>
+      </c>
+      <c r="C156">
+        <v>1395</v>
+      </c>
+      <c r="D156">
+        <v>42693</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>15-07-2020</v>
+      </c>
+      <c r="B157">
+        <v>1876</v>
+      </c>
+      <c r="C157">
+        <v>1425</v>
+      </c>
+      <c r="D157">
+        <v>44569</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>16-07-2020</v>
+      </c>
+      <c r="B158">
+        <v>1933</v>
+      </c>
+      <c r="C158">
+        <v>1504</v>
+      </c>
+      <c r="D158">
+        <v>46502</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>17-07-2020</v>
+      </c>
+      <c r="B159">
+        <v>1602</v>
+      </c>
+      <c r="C159">
+        <v>1562</v>
+      </c>
+      <c r="D159">
+        <v>48104</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>18-07-2020</v>
+      </c>
+      <c r="B160">
+        <v>1447</v>
+      </c>
+      <c r="C160">
+        <v>1590</v>
+      </c>
+      <c r="D160">
+        <v>49551</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>19-07-2020</v>
+      </c>
+      <c r="B161">
+        <v>1016</v>
+      </c>
+      <c r="C161">
+        <v>1630</v>
+      </c>
+      <c r="D161">
+        <v>50567</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>20-07-2020</v>
+      </c>
+      <c r="B162">
+        <v>1887</v>
+      </c>
+      <c r="C162">
+        <v>1598</v>
+      </c>
+      <c r="D162">
+        <v>52454</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>21-07-2020</v>
+      </c>
+      <c r="B163">
+        <v>2007</v>
+      </c>
+      <c r="C163">
+        <v>1623</v>
+      </c>
+      <c r="D163">
+        <v>54461</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>22-07-2020</v>
+      </c>
+      <c r="B164">
+        <v>2043</v>
+      </c>
+      <c r="C164">
+        <v>1681</v>
+      </c>
+      <c r="D164">
+        <v>56504</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>23-07-2020</v>
+      </c>
+      <c r="B165">
+        <v>1985</v>
+      </c>
+      <c r="C165">
+        <v>1705</v>
+      </c>
+      <c r="D165">
+        <v>58489</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>24-07-2020</v>
+      </c>
+      <c r="B166">
+        <v>1828</v>
+      </c>
+      <c r="C166">
+        <v>1712</v>
+      </c>
+      <c r="D166">
+        <v>60317</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>25-07-2020</v>
+      </c>
+      <c r="B167">
+        <v>1111</v>
+      </c>
+      <c r="C167">
+        <v>1744</v>
+      </c>
+      <c r="D167">
+        <v>61428</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>26-07-2020</v>
+      </c>
+      <c r="B168">
+        <v>1038</v>
+      </c>
+      <c r="C168">
+        <v>1696</v>
+      </c>
+      <c r="D168">
+        <v>62466</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>27-07-2020</v>
+      </c>
+      <c r="B169">
+        <v>2050</v>
+      </c>
+      <c r="C169">
+        <v>1699</v>
+      </c>
+      <c r="D169">
+        <v>64516</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>28-07-2020</v>
+      </c>
+      <c r="B170">
+        <v>2124</v>
+      </c>
+      <c r="C170">
+        <v>1723</v>
+      </c>
+      <c r="D170">
+        <v>66640</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>29-07-2020</v>
+      </c>
+      <c r="B171">
+        <v>1955</v>
+      </c>
+      <c r="C171">
+        <v>1739</v>
+      </c>
+      <c r="D171">
+        <v>68595</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>30-07-2020</v>
+      </c>
+      <c r="B172">
+        <v>1784</v>
+      </c>
+      <c r="C172">
+        <v>1727</v>
+      </c>
+      <c r="D172">
+        <v>70379</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>31-07-2020</v>
+      </c>
+      <c r="B173">
+        <v>1359</v>
+      </c>
+      <c r="C173">
+        <v>1698</v>
+      </c>
+      <c r="D173">
+        <v>71738</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>01-08-2020</v>
+      </c>
+      <c r="B174">
+        <v>625</v>
+      </c>
+      <c r="C174">
+        <v>1631</v>
+      </c>
+      <c r="D174">
+        <v>72363</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>02-08-2020</v>
+      </c>
+      <c r="B175">
+        <v>708</v>
+      </c>
+      <c r="C175">
+        <v>1562</v>
+      </c>
+      <c r="D175">
+        <v>73071</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>03-08-2020</v>
+      </c>
+      <c r="B176">
+        <v>1800</v>
+      </c>
+      <c r="C176">
+        <v>1515</v>
+      </c>
+      <c r="D176">
+        <v>74871</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>04-08-2020</v>
+      </c>
+      <c r="B177">
+        <v>1728</v>
+      </c>
+      <c r="C177">
+        <v>1479</v>
+      </c>
+      <c r="D177">
+        <v>76599</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>05-08-2020</v>
+      </c>
+      <c r="B178">
+        <v>1689</v>
+      </c>
+      <c r="C178">
+        <v>1422</v>
+      </c>
+      <c r="D178">
+        <v>78288</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>06-08-2020</v>
+      </c>
+      <c r="B179">
+        <v>1677</v>
+      </c>
+      <c r="C179">
+        <v>1384</v>
+      </c>
+      <c r="D179">
+        <v>79965</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>07-08-2020</v>
+      </c>
+      <c r="B180">
+        <v>1764</v>
+      </c>
+      <c r="C180">
+        <v>1369</v>
+      </c>
+      <c r="D180">
+        <v>81729</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>08-08-2020</v>
+      </c>
+      <c r="B181">
+        <v>754</v>
+      </c>
+      <c r="C181">
+        <v>1427</v>
+      </c>
+      <c r="D181">
+        <v>82483</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>09-08-2020</v>
+      </c>
+      <c r="B182">
+        <v>924</v>
+      </c>
+      <c r="C182">
+        <v>1445</v>
+      </c>
+      <c r="D182">
+        <v>83407</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>10-08-2020</v>
+      </c>
+      <c r="B183">
+        <v>1703</v>
+      </c>
+      <c r="C183">
+        <v>1476</v>
+      </c>
+      <c r="D183">
+        <v>85110</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>11-08-2020</v>
+      </c>
+      <c r="B184">
+        <v>1823</v>
+      </c>
+      <c r="C184">
+        <v>1462</v>
+      </c>
+      <c r="D184">
+        <v>86933</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>12-08-2020</v>
+      </c>
+      <c r="B185">
+        <v>1620</v>
+      </c>
+      <c r="C185">
+        <v>1476</v>
+      </c>
+      <c r="D185">
+        <v>88553</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>13-08-2020</v>
+      </c>
+      <c r="B186">
+        <v>1643</v>
+      </c>
+      <c r="C186">
+        <v>1466</v>
+      </c>
+      <c r="D186">
+        <v>90196</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>14-08-2020</v>
+      </c>
+      <c r="B187">
+        <v>1389</v>
+      </c>
+      <c r="C187">
+        <v>1461</v>
+      </c>
+      <c r="D187">
+        <v>91585</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>15-08-2020</v>
+      </c>
+      <c r="B188">
+        <v>757</v>
+      </c>
+      <c r="C188">
+        <v>1408</v>
+      </c>
+      <c r="D188">
+        <v>92342</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>16-08-2020</v>
+      </c>
+      <c r="B189">
+        <v>1069</v>
+      </c>
+      <c r="C189">
+        <v>1408</v>
+      </c>
+      <c r="D189">
+        <v>93411</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>17-08-2020</v>
+      </c>
+      <c r="B190">
+        <v>1649</v>
+      </c>
+      <c r="C190">
+        <v>1429</v>
+      </c>
+      <c r="D190">
+        <v>95060</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>18-08-2020</v>
+      </c>
+      <c r="B191">
+        <v>1648</v>
+      </c>
+      <c r="C191">
+        <v>1421</v>
+      </c>
+      <c r="D191">
+        <v>96708</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>19-08-2020</v>
+      </c>
+      <c r="B192">
+        <v>1641</v>
+      </c>
+      <c r="C192">
+        <v>1396</v>
+      </c>
+      <c r="D192">
+        <v>98349</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>20-08-2020</v>
+      </c>
+      <c r="B193">
+        <v>1484</v>
+      </c>
+      <c r="C193">
+        <v>1399</v>
+      </c>
+      <c r="D193">
+        <v>99833</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>21-08-2020</v>
+      </c>
+      <c r="B194">
+        <v>1494</v>
+      </c>
+      <c r="C194">
+        <v>1376</v>
+      </c>
+      <c r="D194">
+        <v>101327</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>22-08-2020</v>
+      </c>
+      <c r="B195">
+        <v>710</v>
+      </c>
+      <c r="C195">
+        <v>1391</v>
+      </c>
+      <c r="D195">
+        <v>102037</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>23-08-2020</v>
+      </c>
+      <c r="B196">
+        <v>965</v>
+      </c>
+      <c r="C196">
+        <v>1385</v>
+      </c>
+      <c r="D196">
+        <v>103002</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>24-08-2020</v>
+      </c>
+      <c r="B197">
+        <v>1900</v>
+      </c>
+      <c r="C197">
+        <v>1370</v>
+      </c>
+      <c r="D197">
+        <v>104902</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>25-08-2020</v>
+      </c>
+      <c r="B198">
+        <v>1959</v>
+      </c>
+      <c r="C198">
+        <v>1406</v>
+      </c>
+      <c r="D198">
+        <v>106861</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>26-08-2020</v>
+      </c>
+      <c r="B199">
+        <v>1984</v>
+      </c>
+      <c r="C199">
+        <v>1450</v>
+      </c>
+      <c r="D199">
+        <v>108845</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>27-08-2020</v>
+      </c>
+      <c r="B200">
+        <v>2104</v>
+      </c>
+      <c r="C200">
+        <v>1499</v>
+      </c>
+      <c r="D200">
+        <v>110949</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>28-08-2020</v>
+      </c>
+      <c r="B201">
+        <v>1832</v>
+      </c>
+      <c r="C201">
+        <v>1588</v>
+      </c>
+      <c r="D201">
+        <v>112781</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>29-08-2020</v>
+      </c>
+      <c r="B202">
+        <v>910</v>
+      </c>
+      <c r="C202">
+        <v>1636</v>
+      </c>
+      <c r="D202">
+        <v>113691</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>30-08-2020</v>
+      </c>
+      <c r="B203">
+        <v>1102</v>
+      </c>
+      <c r="C203">
+        <v>1664</v>
+      </c>
+      <c r="D203">
+        <v>114793</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>31-08-2020</v>
+      </c>
+      <c r="B204">
+        <v>2177</v>
+      </c>
+      <c r="C204">
+        <v>1684</v>
+      </c>
+      <c r="D204">
+        <v>116970</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>01-09-2020</v>
+      </c>
+      <c r="B205">
+        <v>2252</v>
+      </c>
+      <c r="C205">
+        <v>1724</v>
+      </c>
+      <c r="D205">
+        <v>119222</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>02-09-2020</v>
+      </c>
+      <c r="B206">
+        <v>3191</v>
+      </c>
+      <c r="C206">
+        <v>1765</v>
+      </c>
+      <c r="D206">
+        <v>122413</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>03-09-2020</v>
+      </c>
+      <c r="B207">
+        <v>2660</v>
+      </c>
+      <c r="C207">
+        <v>1938</v>
+      </c>
+      <c r="D207">
+        <v>125073</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>04-09-2020</v>
+      </c>
+      <c r="B208">
+        <v>2622</v>
+      </c>
+      <c r="C208">
+        <v>2017</v>
+      </c>
+      <c r="D208">
+        <v>127695</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>05-09-2020</v>
+      </c>
+      <c r="B209">
+        <v>1505</v>
+      </c>
+      <c r="C209">
+        <v>2130</v>
+      </c>
+      <c r="D209">
+        <v>129200</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>06-09-2020</v>
+      </c>
+      <c r="B210">
+        <v>2174</v>
+      </c>
+      <c r="C210">
+        <v>2215</v>
+      </c>
+      <c r="D210">
+        <v>131374</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>07-09-2020</v>
+      </c>
+      <c r="B211">
+        <v>3386</v>
+      </c>
+      <c r="C211">
+        <v>2368</v>
+      </c>
+      <c r="D211">
+        <v>134760</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>08-09-2020</v>
+      </c>
+      <c r="B212">
+        <v>3488</v>
+      </c>
+      <c r="C212">
+        <v>2541</v>
+      </c>
+      <c r="D212">
+        <v>138248</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>09-09-2020</v>
+      </c>
+      <c r="B213">
+        <v>3993</v>
+      </c>
+      <c r="C213">
+        <v>2718</v>
+      </c>
+      <c r="D213">
+        <v>142241</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>10-09-2020</v>
+      </c>
+      <c r="B214">
+        <v>4156</v>
+      </c>
+      <c r="C214">
+        <v>2832</v>
+      </c>
+      <c r="D214">
+        <v>146397</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>11-09-2020</v>
+      </c>
+      <c r="B215">
+        <v>3974</v>
+      </c>
+      <c r="C215">
+        <v>3046</v>
+      </c>
+      <c r="D215">
+        <v>150371</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>12-09-2020</v>
+      </c>
+      <c r="B216">
+        <v>2719</v>
+      </c>
+      <c r="C216">
+        <v>3239</v>
+      </c>
+      <c r="D216">
+        <v>153090</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>13-09-2020</v>
+      </c>
+      <c r="B217">
+        <v>3173</v>
+      </c>
+      <c r="C217">
+        <v>3412</v>
+      </c>
+      <c r="D217">
+        <v>156263</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>14-09-2020</v>
+      </c>
+      <c r="B218">
+        <v>4803</v>
+      </c>
+      <c r="C218">
+        <v>3555</v>
+      </c>
+      <c r="D218">
+        <v>161066</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>15-09-2020</v>
+      </c>
+      <c r="B219">
+        <v>5533</v>
+      </c>
+      <c r="C219">
+        <v>3758</v>
+      </c>
+      <c r="D219">
+        <v>166599</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>16-09-2020</v>
+      </c>
+      <c r="B220">
+        <v>4571</v>
+      </c>
+      <c r="C220">
+        <v>4050</v>
+      </c>
+      <c r="D220">
+        <v>171170</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>17-09-2020</v>
+      </c>
+      <c r="B221">
+        <v>5383</v>
+      </c>
+      <c r="C221">
+        <v>4132</v>
+      </c>
+      <c r="D221">
+        <v>176553</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>18-09-2020</v>
+      </c>
+      <c r="B222">
+        <v>5337</v>
+      </c>
+      <c r="C222">
+        <v>4308</v>
+      </c>
+      <c r="D222">
+        <v>181890</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>19-09-2020</v>
+      </c>
+      <c r="B223">
+        <v>3808</v>
+      </c>
+      <c r="C223">
+        <v>4502</v>
+      </c>
+      <c r="D223">
+        <v>185698</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>20-09-2020</v>
+      </c>
+      <c r="B224">
+        <v>2578</v>
+      </c>
+      <c r="C224">
+        <v>4658</v>
+      </c>
+      <c r="D224">
+        <v>188276</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>21-09-2020</v>
+      </c>
+      <c r="B225">
+        <v>3870</v>
+      </c>
+      <c r="C225">
+        <v>4573</v>
+      </c>
+      <c r="D225">
+        <v>192146</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>22-09-2020</v>
+      </c>
+      <c r="B226">
+        <v>7024</v>
+      </c>
+      <c r="C226">
+        <v>4440</v>
+      </c>
+      <c r="D226">
+        <v>199170</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>23-09-2020</v>
+      </c>
+      <c r="B227">
+        <v>7146</v>
+      </c>
+      <c r="C227">
+        <v>4653</v>
+      </c>
+      <c r="D227">
+        <v>206316</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>24-09-2020</v>
+      </c>
+      <c r="B228">
+        <v>8268</v>
+      </c>
+      <c r="C228">
+        <v>5020</v>
+      </c>
+      <c r="D228">
+        <v>214584</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>25-09-2020</v>
+      </c>
+      <c r="B229">
+        <v>8390</v>
+      </c>
+      <c r="C229">
+        <v>5433</v>
+      </c>
+      <c r="D229">
+        <v>222974</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>26-09-2020</v>
+      </c>
+      <c r="B230">
+        <v>5878</v>
+      </c>
+      <c r="C230">
+        <v>5869</v>
+      </c>
+      <c r="D230">
+        <v>228852</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>27-09-2020</v>
+      </c>
+      <c r="B231">
+        <v>3436</v>
+      </c>
+      <c r="C231">
+        <v>6164</v>
+      </c>
+      <c r="D231">
+        <v>232288</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>28-09-2020</v>
+      </c>
+      <c r="B232">
+        <v>1158</v>
+      </c>
+      <c r="C232">
+        <v>6287</v>
+      </c>
+      <c r="D232">
+        <v>233446</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>29-09-2020</v>
+      </c>
+      <c r="B233">
+        <v>4990</v>
+      </c>
+      <c r="C233">
+        <v>5900</v>
+      </c>
+      <c r="D233">
+        <v>238436</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>30-09-2020</v>
+      </c>
+      <c r="B234">
+        <v>9075</v>
+      </c>
+      <c r="C234">
+        <v>5609</v>
+      </c>
+      <c r="D234">
+        <v>247511</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>01-10-2020</v>
+      </c>
+      <c r="B235">
+        <v>7722</v>
+      </c>
+      <c r="C235">
+        <v>5885</v>
+      </c>
+      <c r="D235">
+        <v>255233</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>02-10-2020</v>
+      </c>
+      <c r="B236">
+        <v>7057</v>
+      </c>
+      <c r="C236">
+        <v>5807</v>
+      </c>
+      <c r="D236">
+        <v>262290</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>03-10-2020</v>
+      </c>
+      <c r="B237">
+        <v>2593</v>
+      </c>
+      <c r="C237">
+        <v>5616</v>
+      </c>
+      <c r="D237">
+        <v>264883</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>04-10-2020</v>
+      </c>
+      <c r="B238">
+        <v>2937</v>
+      </c>
+      <c r="C238">
+        <v>5147</v>
+      </c>
+      <c r="D238">
+        <v>267820</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>05-10-2020</v>
+      </c>
+      <c r="B239">
+        <v>5720</v>
+      </c>
+      <c r="C239">
+        <v>5076</v>
+      </c>
+      <c r="D239">
+        <v>273540</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>06-10-2020</v>
+      </c>
+      <c r="B240">
+        <v>4721</v>
+      </c>
+      <c r="C240">
+        <v>5727</v>
+      </c>
+      <c r="D240">
+        <v>278261</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>07-10-2020</v>
+      </c>
+      <c r="B241">
+        <v>4162</v>
+      </c>
+      <c r="C241">
+        <v>5689</v>
+      </c>
+      <c r="D241">
+        <v>282423</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>08-10-2020</v>
+      </c>
+      <c r="B242">
+        <v>3754</v>
+      </c>
+      <c r="C242">
+        <v>4987</v>
+      </c>
+      <c r="D242">
+        <v>286177</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>09-10-2020</v>
+      </c>
+      <c r="B243">
+        <v>2962</v>
+      </c>
+      <c r="C243">
+        <v>4420</v>
+      </c>
+      <c r="D243">
+        <v>289139</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>10-10-2020</v>
+      </c>
+      <c r="B244">
+        <v>916</v>
+      </c>
+      <c r="C244">
+        <v>3835</v>
+      </c>
+      <c r="D244">
+        <v>290055</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>11-10-2020</v>
+      </c>
+      <c r="B245">
+        <v>1644</v>
+      </c>
+      <c r="C245">
+        <v>3596</v>
+      </c>
+      <c r="D245">
+        <v>291699</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>12-10-2020</v>
+      </c>
+      <c r="B246">
+        <v>3168</v>
+      </c>
+      <c r="C246">
+        <v>3411</v>
+      </c>
+      <c r="D246">
+        <v>294867</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>13-10-2020</v>
+      </c>
+      <c r="B247">
+        <v>2332</v>
+      </c>
+      <c r="C247">
+        <v>3046</v>
+      </c>
+      <c r="D247">
+        <v>297199</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>14-10-2020</v>
+      </c>
+      <c r="B248">
+        <v>2116</v>
+      </c>
+      <c r="C248">
+        <v>2705</v>
+      </c>
+      <c r="D248">
+        <v>299315</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>15-10-2020</v>
+      </c>
+      <c r="B249">
+        <v>1611</v>
+      </c>
+      <c r="C249">
+        <v>2413</v>
+      </c>
+      <c r="D249">
+        <v>300926</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>16-10-2020</v>
+      </c>
+      <c r="B250">
+        <v>1498</v>
+      </c>
+      <c r="C250">
+        <v>2107</v>
+      </c>
+      <c r="D250">
+        <v>302424</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>17-10-2020</v>
+      </c>
+      <c r="B251">
+        <v>412</v>
+      </c>
+      <c r="C251">
+        <v>1897</v>
+      </c>
+      <c r="D251">
+        <v>302836</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>18-10-2020</v>
+      </c>
+      <c r="B252">
+        <v>924</v>
+      </c>
+      <c r="C252">
+        <v>1825</v>
+      </c>
+      <c r="D252">
+        <v>303760</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>19-10-2020</v>
+      </c>
+      <c r="B253">
+        <v>1519</v>
+      </c>
+      <c r="C253">
+        <v>1723</v>
+      </c>
+      <c r="D253">
+        <v>305279</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>20-10-2020</v>
+      </c>
+      <c r="B254">
+        <v>1191</v>
+      </c>
+      <c r="C254">
+        <v>1487</v>
+      </c>
+      <c r="D254">
+        <v>306470</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>21-10-2020</v>
+      </c>
+      <c r="B255">
+        <v>1170</v>
+      </c>
+      <c r="C255">
+        <v>1324</v>
+      </c>
+      <c r="D255">
+        <v>307640</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>22-10-2020</v>
+      </c>
+      <c r="B256">
+        <v>1031</v>
+      </c>
+      <c r="C256">
+        <v>1189</v>
+      </c>
+      <c r="D256">
+        <v>308671</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>23-10-2020</v>
+      </c>
+      <c r="B257">
+        <v>850</v>
+      </c>
+      <c r="C257">
+        <v>1106</v>
+      </c>
+      <c r="D257">
+        <v>309521</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>24-10-2020</v>
+      </c>
+      <c r="B258">
+        <v>246</v>
+      </c>
+      <c r="C258">
+        <v>1013</v>
+      </c>
+      <c r="D258">
+        <v>309767</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>25-10-2020</v>
+      </c>
+      <c r="B259">
+        <v>606</v>
+      </c>
+      <c r="C259">
+        <v>990</v>
+      </c>
+      <c r="D259">
+        <v>310373</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>26-10-2020</v>
+      </c>
+      <c r="B260">
+        <v>884</v>
+      </c>
+      <c r="C260">
+        <v>944</v>
+      </c>
+      <c r="D260">
+        <v>311257</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>27-10-2020</v>
+      </c>
+      <c r="B261">
+        <v>887</v>
+      </c>
+      <c r="C261">
+        <v>854</v>
+      </c>
+      <c r="D261">
+        <v>312144</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>28-10-2020</v>
+      </c>
+      <c r="B262">
+        <v>724</v>
+      </c>
+      <c r="C262">
+        <v>810</v>
+      </c>
+      <c r="D262">
+        <v>312868</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>29-10-2020</v>
+      </c>
+      <c r="B263">
+        <v>644</v>
+      </c>
+      <c r="C263">
+        <v>746</v>
+      </c>
+      <c r="D263">
+        <v>313512</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>30-10-2020</v>
+      </c>
+      <c r="B264">
+        <v>678</v>
+      </c>
+      <c r="C264">
+        <v>691</v>
+      </c>
+      <c r="D264">
+        <v>314190</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>31-10-2020</v>
+      </c>
+      <c r="B265">
+        <v>228</v>
+      </c>
+      <c r="C265">
+        <v>667</v>
+      </c>
+      <c r="D265">
+        <v>314418</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>01-11-2020</v>
+      </c>
+      <c r="B266">
+        <v>658</v>
+      </c>
+      <c r="C266">
+        <v>664</v>
+      </c>
+      <c r="D266">
+        <v>315076</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>02-11-2020</v>
+      </c>
+      <c r="B267">
+        <v>789</v>
+      </c>
+      <c r="C267">
+        <v>671</v>
+      </c>
+      <c r="D267">
+        <v>315865</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>03-11-2020</v>
+      </c>
+      <c r="B268">
+        <v>845</v>
+      </c>
+      <c r="C268">
+        <v>658</v>
+      </c>
+      <c r="D268">
+        <v>316710</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>04-11-2020</v>
+      </c>
+      <c r="B269">
+        <v>769</v>
+      </c>
+      <c r="C269">
+        <v>652</v>
+      </c>
+      <c r="D269">
+        <v>317479</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>05-11-2020</v>
+      </c>
+      <c r="B270">
+        <v>570</v>
+      </c>
+      <c r="C270">
+        <v>658</v>
+      </c>
+      <c r="D270">
+        <v>318049</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>06-11-2020</v>
+      </c>
+      <c r="B271">
+        <v>692</v>
+      </c>
+      <c r="C271">
+        <v>648</v>
+      </c>
+      <c r="D271">
+        <v>318741</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>07-11-2020</v>
+      </c>
+      <c r="B272">
+        <v>212</v>
+      </c>
+      <c r="C272">
+        <v>650</v>
+      </c>
+      <c r="D272">
+        <v>318953</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>08-11-2020</v>
+      </c>
+      <c r="B273">
+        <v>534</v>
+      </c>
+      <c r="C273">
+        <v>647</v>
+      </c>
+      <c r="D273">
+        <v>319487</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>09-11-2020</v>
+      </c>
+      <c r="B274">
+        <v>719</v>
+      </c>
+      <c r="C274">
+        <v>630</v>
+      </c>
+      <c r="D274">
+        <v>320206</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>10-11-2020</v>
+      </c>
+      <c r="B275">
+        <v>675</v>
+      </c>
+      <c r="C275">
+        <v>620</v>
+      </c>
+      <c r="D275">
+        <v>320881</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>11-11-2020</v>
+      </c>
+      <c r="B276">
+        <v>765</v>
+      </c>
+      <c r="C276">
+        <v>595</v>
+      </c>
+      <c r="D276">
+        <v>321646</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>12-11-2020</v>
+      </c>
+      <c r="B277">
+        <v>836</v>
+      </c>
+      <c r="C277">
+        <v>595</v>
+      </c>
+      <c r="D277">
+        <v>322482</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>13-11-2020</v>
+      </c>
+      <c r="B278">
+        <v>760</v>
+      </c>
+      <c r="C278">
+        <v>633</v>
+      </c>
+      <c r="D278">
+        <v>323242</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>14-11-2020</v>
+      </c>
+      <c r="B279">
+        <v>292</v>
+      </c>
+      <c r="C279">
+        <v>643</v>
+      </c>
+      <c r="D279">
+        <v>323534</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>15-11-2020</v>
+      </c>
+      <c r="B280">
+        <v>626</v>
+      </c>
+      <c r="C280">
+        <v>654</v>
+      </c>
+      <c r="D280">
+        <v>324160</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>16-11-2020</v>
+      </c>
+      <c r="B281">
+        <v>873</v>
+      </c>
+      <c r="C281">
+        <v>667</v>
+      </c>
+      <c r="D281">
+        <v>325033</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>17-11-2020</v>
+      </c>
+      <c r="B282">
+        <v>829</v>
+      </c>
+      <c r="C282">
+        <v>689</v>
+      </c>
+      <c r="D282">
+        <v>325862</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>18-11-2020</v>
+      </c>
+      <c r="B283">
+        <v>794</v>
+      </c>
+      <c r="C283">
+        <v>711</v>
+      </c>
+      <c r="D283">
+        <v>326656</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>19-11-2020</v>
+      </c>
+      <c r="B284">
+        <v>770</v>
+      </c>
+      <c r="C284">
+        <v>715</v>
+      </c>
+      <c r="D284">
+        <v>327426</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>20-11-2020</v>
+      </c>
+      <c r="B285">
+        <v>772</v>
+      </c>
+      <c r="C285">
+        <v>706</v>
+      </c>
+      <c r="D285">
+        <v>328198</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>21-11-2020</v>
+      </c>
+      <c r="B286">
+        <v>423</v>
+      </c>
+      <c r="C286">
+        <v>708</v>
+      </c>
+      <c r="D286">
+        <v>328621</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>22-11-2020</v>
+      </c>
+      <c r="B287">
+        <v>762</v>
+      </c>
+      <c r="C287">
+        <v>726</v>
+      </c>
+      <c r="D287">
+        <v>329383</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>23-11-2020</v>
+      </c>
+      <c r="B288">
+        <v>959</v>
+      </c>
+      <c r="C288">
+        <v>746</v>
+      </c>
+      <c r="D288">
+        <v>330342</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>24-11-2020</v>
+      </c>
+      <c r="B289">
+        <v>857</v>
+      </c>
+      <c r="C289">
+        <v>758</v>
+      </c>
+      <c r="D289">
+        <v>331199</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>25-11-2020</v>
+      </c>
+      <c r="B290">
+        <v>1079</v>
+      </c>
+      <c r="C290">
+        <v>762</v>
+      </c>
+      <c r="D290">
+        <v>332278</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>26-11-2020</v>
+      </c>
+      <c r="B291">
+        <v>1087</v>
+      </c>
+      <c r="C291">
+        <v>803</v>
+      </c>
+      <c r="D291">
+        <v>333365</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>27-11-2020</v>
+      </c>
+      <c r="B292">
+        <v>1034</v>
+      </c>
+      <c r="C292">
+        <v>848</v>
+      </c>
+      <c r="D292">
+        <v>334399</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>28-11-2020</v>
+      </c>
+      <c r="B293">
+        <v>583</v>
+      </c>
+      <c r="C293">
+        <v>885</v>
+      </c>
+      <c r="D293">
+        <v>334982</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>29-11-2020</v>
+      </c>
+      <c r="B294">
+        <v>1024</v>
+      </c>
+      <c r="C294">
+        <v>908</v>
+      </c>
+      <c r="D294">
+        <v>336006</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>30-11-2020</v>
+      </c>
+      <c r="B295">
+        <v>1257</v>
+      </c>
+      <c r="C295">
+        <v>946</v>
+      </c>
+      <c r="D295">
+        <v>337263</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>01-12-2020</v>
+      </c>
+      <c r="B296">
+        <v>1197</v>
+      </c>
+      <c r="C296">
+        <v>988</v>
+      </c>
+      <c r="D296">
+        <v>338460</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>02-12-2020</v>
+      </c>
+      <c r="B297">
+        <v>1586</v>
+      </c>
+      <c r="C297">
+        <v>1037</v>
+      </c>
+      <c r="D297">
+        <v>340046</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>03-12-2020</v>
+      </c>
+      <c r="B298">
+        <v>1450</v>
+      </c>
+      <c r="C298">
+        <v>1109</v>
+      </c>
+      <c r="D298">
+        <v>341496</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>04-12-2020</v>
+      </c>
+      <c r="B299">
+        <v>1515</v>
+      </c>
+      <c r="C299">
+        <v>1161</v>
+      </c>
+      <c r="D299">
+        <v>343011</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>05-12-2020</v>
+      </c>
+      <c r="B300">
+        <v>1001</v>
+      </c>
+      <c r="C300">
+        <v>1230</v>
+      </c>
+      <c r="D300">
+        <v>344012</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>06-12-2020</v>
+      </c>
+      <c r="B301">
+        <v>1363</v>
+      </c>
+      <c r="C301">
+        <v>1290</v>
+      </c>
+      <c r="D301">
+        <v>345375</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>07-12-2020</v>
+      </c>
+      <c r="B302">
+        <v>1858</v>
+      </c>
+      <c r="C302">
+        <v>1338</v>
+      </c>
+      <c r="D302">
+        <v>347233</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>08-12-2020</v>
+      </c>
+      <c r="B303">
+        <v>1765</v>
+      </c>
+      <c r="C303">
+        <v>1424</v>
+      </c>
+      <c r="D303">
+        <v>348998</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>09-12-2020</v>
+      </c>
+      <c r="B304">
+        <v>1866</v>
+      </c>
+      <c r="C304">
+        <v>1505</v>
+      </c>
+      <c r="D304">
+        <v>350864</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>10-12-2020</v>
+      </c>
+      <c r="B305">
+        <v>2005</v>
+      </c>
+      <c r="C305">
+        <v>1545</v>
+      </c>
+      <c r="D305">
+        <v>352869</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>11-12-2020</v>
+      </c>
+      <c r="B306">
+        <v>1835</v>
+      </c>
+      <c r="C306">
+        <v>1624</v>
+      </c>
+      <c r="D306">
+        <v>354704</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>12-12-2020</v>
+      </c>
+      <c r="B307">
+        <v>1297</v>
+      </c>
+      <c r="C307">
+        <v>1670</v>
+      </c>
+      <c r="D307">
+        <v>356001</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>13-12-2020</v>
+      </c>
+      <c r="B308">
+        <v>1727</v>
+      </c>
+      <c r="C308">
+        <v>1712</v>
+      </c>
+      <c r="D308">
+        <v>357728</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>14-12-2020</v>
+      </c>
+      <c r="B309">
+        <v>2313</v>
+      </c>
+      <c r="C309">
+        <v>1764</v>
+      </c>
+      <c r="D309">
+        <v>360041</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>15-12-2020</v>
+      </c>
+      <c r="B310">
+        <v>2890</v>
+      </c>
+      <c r="C310">
+        <v>1829</v>
+      </c>
+      <c r="D310">
+        <v>362931</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>16-12-2020</v>
+      </c>
+      <c r="B311">
+        <v>2851</v>
+      </c>
+      <c r="C311">
+        <v>1990</v>
+      </c>
+      <c r="D311">
+        <v>365782</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>17-12-2020</v>
+      </c>
+      <c r="B312">
+        <v>2844</v>
+      </c>
+      <c r="C312">
+        <v>2131</v>
+      </c>
+      <c r="D312">
+        <v>368626</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>18-12-2020</v>
+      </c>
+      <c r="B313">
+        <v>2790</v>
+      </c>
+      <c r="C313">
+        <v>2251</v>
+      </c>
+      <c r="D313">
+        <v>371416</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>19-12-2020</v>
+      </c>
+      <c r="B314">
+        <v>1885</v>
+      </c>
+      <c r="C314">
+        <v>2387</v>
+      </c>
+      <c r="D314">
+        <v>373301</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>20-12-2020</v>
+      </c>
+      <c r="B315">
+        <v>3090</v>
+      </c>
+      <c r="C315">
+        <v>2471</v>
+      </c>
+      <c r="D315">
+        <v>376391</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>21-12-2020</v>
+      </c>
+      <c r="B316">
+        <v>3853</v>
+      </c>
+      <c r="C316">
+        <v>2666</v>
+      </c>
+      <c r="D316">
+        <v>380244</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>22-12-2020</v>
+      </c>
+      <c r="B317">
+        <v>4379</v>
+      </c>
+      <c r="C317">
+        <v>2886</v>
+      </c>
+      <c r="D317">
+        <v>384623</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>23-12-2020</v>
+      </c>
+      <c r="B318">
+        <v>4034</v>
+      </c>
+      <c r="C318">
+        <v>3098</v>
+      </c>
+      <c r="D318">
+        <v>388657</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>24-12-2020</v>
+      </c>
+      <c r="B319">
+        <v>4047</v>
+      </c>
+      <c r="C319">
+        <v>3267</v>
+      </c>
+      <c r="D319">
+        <v>392704</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>25-12-2020</v>
+      </c>
+      <c r="B320">
+        <v>4012</v>
+      </c>
+      <c r="C320">
+        <v>3439</v>
+      </c>
+      <c r="D320">
+        <v>396716</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>26-12-2020</v>
+      </c>
+      <c r="B321">
+        <v>2656</v>
+      </c>
+      <c r="C321">
+        <v>3614</v>
+      </c>
+      <c r="D321">
+        <v>399372</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>27-12-2020</v>
+      </c>
+      <c r="B322">
+        <v>3524</v>
+      </c>
+      <c r="C322">
+        <v>3724</v>
+      </c>
+      <c r="D322">
+        <v>402896</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>28-12-2020</v>
+      </c>
+      <c r="B323">
+        <v>5517</v>
+      </c>
+      <c r="C323">
+        <v>3786</v>
+      </c>
+      <c r="D323">
+        <v>408413</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>29-12-2020</v>
+      </c>
+      <c r="B324">
+        <v>5636</v>
+      </c>
+      <c r="C324">
+        <v>4024</v>
+      </c>
+      <c r="D324">
+        <v>414049</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>30-12-2020</v>
+      </c>
+      <c r="B325">
+        <v>5863</v>
+      </c>
+      <c r="C325">
+        <v>4203</v>
+      </c>
+      <c r="D325">
+        <v>419912</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>31-12-2020</v>
+      </c>
+      <c r="B326">
+        <v>5872</v>
+      </c>
+      <c r="C326">
+        <v>4465</v>
+      </c>
+      <c r="D326">
+        <v>425784</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>01-01-2021</v>
+      </c>
+      <c r="B327">
+        <v>6020</v>
+      </c>
+      <c r="C327">
+        <v>4725</v>
+      </c>
+      <c r="D327">
+        <v>431804</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>02-01-2021</v>
+      </c>
+      <c r="B328">
+        <v>4214</v>
+      </c>
+      <c r="C328">
+        <v>5012</v>
+      </c>
+      <c r="D328">
+        <v>436018</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>03-01-2021</v>
+      </c>
+      <c r="B329">
+        <v>5227</v>
+      </c>
+      <c r="C329">
+        <v>5235</v>
+      </c>
+      <c r="D329">
+        <v>441245</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>04-01-2021</v>
+      </c>
+      <c r="B330">
+        <v>8404</v>
+      </c>
+      <c r="C330">
+        <v>5478</v>
+      </c>
+      <c r="D330">
+        <v>449649</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>05-01-2021</v>
+      </c>
+      <c r="B331">
+        <v>8236</v>
+      </c>
+      <c r="C331">
+        <v>5890</v>
+      </c>
+      <c r="D331">
+        <v>457885</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>06-01-2021</v>
+      </c>
+      <c r="B332">
+        <v>7874</v>
+      </c>
+      <c r="C332">
+        <v>6262</v>
+      </c>
+      <c r="D332">
+        <v>465759</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>07-01-2021</v>
+      </c>
+      <c r="B333">
+        <v>7645</v>
+      </c>
+      <c r="C333">
+        <v>6549</v>
+      </c>
+      <c r="D333">
+        <v>473404</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>08-01-2021</v>
+      </c>
+      <c r="B334">
+        <v>8152</v>
+      </c>
+      <c r="C334">
+        <v>6802</v>
+      </c>
+      <c r="D334">
+        <v>481556</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>09-01-2021</v>
+      </c>
+      <c r="B335">
+        <v>5157</v>
+      </c>
+      <c r="C335">
+        <v>7107</v>
+      </c>
+      <c r="D335">
+        <v>486713</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>10-01-2021</v>
+      </c>
+      <c r="B336">
+        <v>6934</v>
+      </c>
+      <c r="C336">
+        <v>7242</v>
+      </c>
+      <c r="D336">
+        <v>493647</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>11-01-2021</v>
+      </c>
+      <c r="B337">
+        <v>9704</v>
+      </c>
+      <c r="C337">
+        <v>7486</v>
+      </c>
+      <c r="D337">
+        <v>503351</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>12-01-2021</v>
+      </c>
+      <c r="B338">
+        <v>9296</v>
+      </c>
+      <c r="C338">
+        <v>7671</v>
+      </c>
+      <c r="D338">
+        <v>512647</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>13-01-2021</v>
+      </c>
+      <c r="B339">
+        <v>9468</v>
+      </c>
+      <c r="C339">
+        <v>7823</v>
+      </c>
+      <c r="D339">
+        <v>522115</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>14-01-2021</v>
+      </c>
+      <c r="B340">
+        <v>9291</v>
+      </c>
+      <c r="C340">
+        <v>8050</v>
+      </c>
+      <c r="D340">
+        <v>531406</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>15-01-2021</v>
+      </c>
+      <c r="B341">
+        <v>8424</v>
+      </c>
+      <c r="C341">
+        <v>8286</v>
+      </c>
+      <c r="D341">
+        <v>539830</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>16-01-2021</v>
+      </c>
+      <c r="B342">
+        <v>5086</v>
+      </c>
+      <c r="C342">
+        <v>8324</v>
+      </c>
+      <c r="D342">
+        <v>544916</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>17-01-2021</v>
+      </c>
+      <c r="B343">
+        <v>5641</v>
+      </c>
+      <c r="C343">
+        <v>8314</v>
+      </c>
+      <c r="D343">
+        <v>550557</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>18-01-2021</v>
+      </c>
+      <c r="B344">
+        <v>10109</v>
+      </c>
+      <c r="C344">
+        <v>8130</v>
+      </c>
+      <c r="D344">
+        <v>560666</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>19-01-2021</v>
+      </c>
+      <c r="B345">
+        <v>8623</v>
+      </c>
+      <c r="C345">
+        <v>8187</v>
+      </c>
+      <c r="D345">
+        <v>569289</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>20-01-2021</v>
+      </c>
+      <c r="B346">
+        <v>8362</v>
+      </c>
+      <c r="C346">
+        <v>8091</v>
+      </c>
+      <c r="D346">
+        <v>577651</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>21-01-2021</v>
+      </c>
+      <c r="B347">
+        <v>7270</v>
+      </c>
+      <c r="C347">
+        <v>7933</v>
+      </c>
+      <c r="D347">
+        <v>584921</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>22-01-2021</v>
+      </c>
+      <c r="B348">
+        <v>7387</v>
+      </c>
+      <c r="C348">
+        <v>7645</v>
+      </c>
+      <c r="D348">
+        <v>592308</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>23-01-2021</v>
+      </c>
+      <c r="B349">
+        <v>2449</v>
+      </c>
+      <c r="C349">
+        <v>7496</v>
+      </c>
+      <c r="D349">
+        <v>594757</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>24-01-2021</v>
+      </c>
+      <c r="B350">
+        <v>4943</v>
+      </c>
+      <c r="C350">
+        <v>7120</v>
+      </c>
+      <c r="D350">
+        <v>599700</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>25-01-2021</v>
+      </c>
+      <c r="B351">
+        <v>8727</v>
+      </c>
+      <c r="C351">
+        <v>7020</v>
+      </c>
+      <c r="D351">
+        <v>608427</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>26-01-2021</v>
+      </c>
+      <c r="B352">
+        <v>7800</v>
+      </c>
+      <c r="C352">
+        <v>6823</v>
+      </c>
+      <c r="D352">
+        <v>616227</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>27-01-2021</v>
+      </c>
+      <c r="B353">
+        <v>7727</v>
+      </c>
+      <c r="C353">
+        <v>6705</v>
+      </c>
+      <c r="D353">
+        <v>623954</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>28-01-2021</v>
+      </c>
+      <c r="B354">
+        <v>7176</v>
+      </c>
+      <c r="C354">
+        <v>6614</v>
+      </c>
+      <c r="D354">
+        <v>631130</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>29-01-2021</v>
+      </c>
+      <c r="B355">
+        <v>6759</v>
+      </c>
+      <c r="C355">
+        <v>6601</v>
+      </c>
+      <c r="D355">
+        <v>637889</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>30-01-2021</v>
+      </c>
+      <c r="B356">
+        <v>2622</v>
+      </c>
+      <c r="C356">
+        <v>6511</v>
+      </c>
+      <c r="D356">
+        <v>640511</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>31-01-2021</v>
+      </c>
+      <c r="B357">
+        <v>5224</v>
+      </c>
+      <c r="C357">
+        <v>6536</v>
+      </c>
+      <c r="D357">
+        <v>645735</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>01-02-2021</v>
+      </c>
+      <c r="B358">
+        <v>8921</v>
+      </c>
+      <c r="C358">
+        <v>6576</v>
+      </c>
+      <c r="D358">
+        <v>654656</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v>02-02-2021</v>
+      </c>
+      <c r="B359">
+        <v>8016</v>
+      </c>
+      <c r="C359">
+        <v>6604</v>
+      </c>
+      <c r="D359">
+        <v>662672</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>03-02-2021</v>
+      </c>
+      <c r="B360">
+        <v>7468</v>
+      </c>
+      <c r="C360">
+        <v>6635</v>
+      </c>
+      <c r="D360">
+        <v>670140</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>04-02-2021</v>
+      </c>
+      <c r="B361">
+        <v>7248</v>
+      </c>
+      <c r="C361">
+        <v>6598</v>
+      </c>
+      <c r="D361">
+        <v>677388</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>05-02-2021</v>
+      </c>
+      <c r="B362">
+        <v>6581</v>
+      </c>
+      <c r="C362">
+        <v>6608</v>
+      </c>
+      <c r="D362">
+        <v>683969</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>06-02-2021</v>
+      </c>
+      <c r="B363">
+        <v>2657</v>
+      </c>
+      <c r="C363">
+        <v>6582</v>
+      </c>
+      <c r="D363">
+        <v>686626</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>07-02-2021</v>
+      </c>
+      <c r="B364">
+        <v>4596</v>
+      </c>
+      <c r="C364">
+        <v>6587</v>
+      </c>
+      <c r="D364">
+        <v>691222</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>08-02-2021</v>
+      </c>
+      <c r="B365">
+        <v>7842</v>
+      </c>
+      <c r="C365">
+        <v>6498</v>
+      </c>
+      <c r="D365">
+        <v>699064</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>09-02-2021</v>
+      </c>
+      <c r="B366">
+        <v>6163</v>
+      </c>
+      <c r="C366">
+        <v>6344</v>
+      </c>
+      <c r="D366">
+        <v>705227</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>10-02-2021</v>
+      </c>
+      <c r="B367">
+        <v>5673</v>
+      </c>
+      <c r="C367">
+        <v>6079</v>
+      </c>
+      <c r="D367">
+        <v>710900</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>11-02-2021</v>
+      </c>
+      <c r="B368">
+        <v>5007</v>
+      </c>
+      <c r="C368">
+        <v>5822</v>
+      </c>
+      <c r="D368">
+        <v>715907</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>12-02-2021</v>
+      </c>
+      <c r="B369">
+        <v>4671</v>
+      </c>
+      <c r="C369">
+        <v>5502</v>
+      </c>
+      <c r="D369">
+        <v>720578</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v>13-02-2021</v>
+      </c>
+      <c r="B370">
+        <v>1887</v>
+      </c>
+      <c r="C370">
+        <v>5229</v>
+      </c>
+      <c r="D370">
+        <v>722465</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>14-02-2021</v>
+      </c>
+      <c r="B371">
+        <v>3483</v>
+      </c>
+      <c r="C371">
+        <v>5119</v>
+      </c>
+      <c r="D371">
+        <v>725948</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v>15-02-2021</v>
+      </c>
+      <c r="B372">
+        <v>5188</v>
+      </c>
+      <c r="C372">
+        <v>4960</v>
+      </c>
+      <c r="D372">
+        <v>731136</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v>16-02-2021</v>
+      </c>
+      <c r="B373">
+        <v>4568</v>
+      </c>
+      <c r="C373">
+        <v>4581</v>
+      </c>
+      <c r="D373">
+        <v>735704</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>17-02-2021</v>
+      </c>
+      <c r="B374">
+        <v>4162</v>
+      </c>
+      <c r="C374">
+        <v>4353</v>
+      </c>
+      <c r="D374">
+        <v>739866</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>18-02-2021</v>
+      </c>
+      <c r="B375">
+        <v>3332</v>
+      </c>
+      <c r="C375">
+        <v>4138</v>
+      </c>
+      <c r="D375">
+        <v>743198</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>19-02-2021</v>
+      </c>
+      <c r="B376">
+        <v>3789</v>
+      </c>
+      <c r="C376">
+        <v>3898</v>
+      </c>
+      <c r="D376">
+        <v>746987</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>20-02-2021</v>
+      </c>
+      <c r="B377">
+        <v>1255</v>
+      </c>
+      <c r="C377">
+        <v>3772</v>
+      </c>
+      <c r="D377">
+        <v>748242</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v>21-02-2021</v>
+      </c>
+      <c r="B378">
+        <v>3107</v>
+      </c>
+      <c r="C378">
+        <v>3682</v>
+      </c>
+      <c r="D378">
+        <v>751349</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v>22-02-2021</v>
+      </c>
+      <c r="B379">
+        <v>4806</v>
+      </c>
+      <c r="C379">
+        <v>3628</v>
+      </c>
+      <c r="D379">
+        <v>756155</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v>23-02-2021</v>
+      </c>
+      <c r="B380">
+        <v>4443</v>
+      </c>
+      <c r="C380">
+        <v>3574</v>
+      </c>
+      <c r="D380">
+        <v>760598</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v>24-02-2021</v>
+      </c>
+      <c r="B381">
+        <v>4371</v>
+      </c>
+      <c r="C381">
+        <v>3556</v>
+      </c>
+      <c r="D381">
+        <v>764969</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v>25-02-2021</v>
+      </c>
+      <c r="B382">
+        <v>3813</v>
+      </c>
+      <c r="C382">
+        <v>3586</v>
+      </c>
+      <c r="D382">
+        <v>768782</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
+        <v>26-02-2021</v>
+      </c>
+      <c r="B383">
+        <v>3811</v>
+      </c>
+      <c r="C383">
+        <v>3654</v>
+      </c>
+      <c r="D383">
+        <v>772593</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v>27-02-2021</v>
+      </c>
+      <c r="B384">
+        <v>1438</v>
+      </c>
+      <c r="C384">
+        <v>3658</v>
+      </c>
+      <c r="D384">
+        <v>774031</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v>28-02-2021</v>
+      </c>
+      <c r="B385">
+        <v>3058</v>
+      </c>
+      <c r="C385">
+        <v>3684</v>
+      </c>
+      <c r="D385">
+        <v>777089</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v>01-03-2021</v>
+      </c>
+      <c r="B386">
+        <v>4852</v>
+      </c>
+      <c r="C386">
+        <v>3677</v>
+      </c>
+      <c r="D386">
+        <v>781941</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v>02-03-2021</v>
+      </c>
+      <c r="B387">
+        <v>4375</v>
+      </c>
+      <c r="C387">
+        <v>3683</v>
+      </c>
+      <c r="D387">
+        <v>786316</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v>03-03-2021</v>
+      </c>
+      <c r="B388">
+        <v>4668</v>
+      </c>
+      <c r="C388">
+        <v>3674</v>
+      </c>
+      <c r="D388">
+        <v>790984</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v>04-03-2021</v>
+      </c>
+      <c r="B389">
+        <v>3657</v>
+      </c>
+      <c r="C389">
+        <v>3716</v>
+      </c>
+      <c r="D389">
+        <v>794641</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v>05-03-2021</v>
+      </c>
+      <c r="B390">
+        <v>3712</v>
+      </c>
+      <c r="C390">
+        <v>3694</v>
+      </c>
+      <c r="D390">
+        <v>798353</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>06-03-2021</v>
+      </c>
+      <c r="B391">
+        <v>1870</v>
+      </c>
+      <c r="C391">
+        <v>3680</v>
+      </c>
+      <c r="D391">
+        <v>800223</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v>07-03-2021</v>
+      </c>
+      <c r="B392">
+        <v>2344</v>
+      </c>
+      <c r="C392">
+        <v>3741</v>
+      </c>
+      <c r="D392">
+        <v>802567</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v>08-03-2021</v>
+      </c>
+      <c r="B393">
+        <v>3783</v>
+      </c>
+      <c r="C393">
+        <v>3639</v>
+      </c>
+      <c r="D393">
+        <v>806350</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>09-03-2021</v>
+      </c>
+      <c r="B394">
+        <v>3120</v>
+      </c>
+      <c r="C394">
+        <v>3487</v>
+      </c>
+      <c r="D394">
+        <v>809470</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>10-03-2021</v>
+      </c>
+      <c r="B395">
+        <v>2832</v>
+      </c>
+      <c r="C395">
+        <v>3307</v>
+      </c>
+      <c r="D395">
+        <v>812302</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v>11-03-2021</v>
+      </c>
+      <c r="B396">
+        <v>2548</v>
+      </c>
+      <c r="C396">
+        <v>3045</v>
+      </c>
+      <c r="D396">
+        <v>814850</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>12-03-2021</v>
+      </c>
+      <c r="B397">
+        <v>2411</v>
+      </c>
+      <c r="C397">
+        <v>2887</v>
+      </c>
+      <c r="D397">
+        <v>817261</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>13-03-2021</v>
+      </c>
+      <c r="B398">
+        <v>782</v>
+      </c>
+      <c r="C398">
+        <v>2701</v>
+      </c>
+      <c r="D398">
+        <v>818043</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>14-03-2021</v>
+      </c>
+      <c r="B399">
+        <v>1389</v>
+      </c>
+      <c r="C399">
+        <v>2545</v>
+      </c>
+      <c r="D399">
+        <v>819432</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v>15-03-2021</v>
+      </c>
+      <c r="B400">
+        <v>2123</v>
+      </c>
+      <c r="C400">
+        <v>2409</v>
+      </c>
+      <c r="D400">
+        <v>821555</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>16-03-2021</v>
+      </c>
+      <c r="B401">
+        <v>1563</v>
+      </c>
+      <c r="C401">
+        <v>2172</v>
+      </c>
+      <c r="D401">
+        <v>823118</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>17-03-2021</v>
+      </c>
+      <c r="B402">
+        <v>1530</v>
+      </c>
+      <c r="C402">
+        <v>1949</v>
+      </c>
+      <c r="D402">
+        <v>824648</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v>18-03-2021</v>
+      </c>
+      <c r="B403">
+        <v>1247</v>
+      </c>
+      <c r="C403">
+        <v>1763</v>
+      </c>
+      <c r="D403">
+        <v>825895</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>19-03-2021</v>
+      </c>
+      <c r="B404">
+        <v>1082</v>
+      </c>
+      <c r="C404">
+        <v>1577</v>
+      </c>
+      <c r="D404">
+        <v>826977</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v>20-03-2021</v>
+      </c>
+      <c r="B405">
+        <v>349</v>
+      </c>
+      <c r="C405">
+        <v>1388</v>
+      </c>
+      <c r="D405">
+        <v>827326</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v>21-03-2021</v>
+      </c>
+      <c r="B406">
+        <v>674</v>
+      </c>
+      <c r="C406">
+        <v>1326</v>
+      </c>
+      <c r="D406">
+        <v>828000</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v>22-03-2021</v>
+      </c>
+      <c r="B407">
+        <v>977</v>
+      </c>
+      <c r="C407">
+        <v>1224</v>
+      </c>
+      <c r="D407">
+        <v>828977</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v>23-03-2021</v>
+      </c>
+      <c r="B408">
+        <v>687</v>
+      </c>
+      <c r="C408">
+        <v>1060</v>
+      </c>
+      <c r="D408">
+        <v>829664</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v>24-03-2021</v>
+      </c>
+      <c r="B409">
+        <v>478</v>
+      </c>
+      <c r="C409">
+        <v>935</v>
+      </c>
+      <c r="D409">
+        <v>830142</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
+        <v>25-03-2021</v>
+      </c>
+      <c r="B410">
+        <v>843</v>
+      </c>
+      <c r="C410">
+        <v>784</v>
+      </c>
+      <c r="D410">
+        <v>830985</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v>26-03-2021</v>
+      </c>
+      <c r="B411">
+        <v>520</v>
+      </c>
+      <c r="C411">
+        <v>727</v>
+      </c>
+      <c r="D411">
+        <v>831505</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v>27-03-2021</v>
+      </c>
+      <c r="B412">
+        <v>231</v>
+      </c>
+      <c r="C412">
+        <v>646</v>
+      </c>
+      <c r="D412">
+        <v>831736</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v>28-03-2021</v>
+      </c>
+      <c r="B413">
+        <v>129</v>
+      </c>
+      <c r="C413">
+        <v>630</v>
+      </c>
+      <c r="D413">
+        <v>831865</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v>29-03-2021</v>
+      </c>
+      <c r="B414">
+        <v>363</v>
+      </c>
+      <c r="C414">
+        <v>552</v>
+      </c>
+      <c r="D414">
+        <v>832228</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v>30-03-2021</v>
+      </c>
+      <c r="B415">
+        <v>443</v>
+      </c>
+      <c r="C415">
+        <v>464</v>
+      </c>
+      <c r="D415">
+        <v>832671</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v>31-03-2021</v>
+      </c>
+      <c r="B416">
+        <v>492</v>
+      </c>
+      <c r="C416">
+        <v>429</v>
+      </c>
+      <c r="D416">
+        <v>833163</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v>01-04-2021</v>
+      </c>
+      <c r="B417">
+        <v>333</v>
+      </c>
+      <c r="C417">
+        <v>431</v>
+      </c>
+      <c r="D417">
+        <v>833496</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v>02-04-2021</v>
+      </c>
+      <c r="B418">
+        <v>418</v>
+      </c>
+      <c r="C418">
+        <v>358</v>
+      </c>
+      <c r="D418">
+        <v>833914</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v>03-04-2021</v>
+      </c>
+      <c r="B419">
+        <v>124</v>
+      </c>
+      <c r="C419">
+        <v>344</v>
+      </c>
+      <c r="D419">
+        <v>834038</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="str">
+        <v>04-04-2021</v>
+      </c>
+      <c r="B420">
+        <v>195</v>
+      </c>
+      <c r="C420">
+        <v>328</v>
+      </c>
+      <c r="D420">
+        <v>834233</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v>05-04-2021</v>
+      </c>
+      <c r="B421">
+        <v>380</v>
+      </c>
+      <c r="C421">
+        <v>338</v>
+      </c>
+      <c r="D421">
+        <v>834613</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="str">
+        <v>06-04-2021</v>
+      </c>
+      <c r="B422">
+        <v>307</v>
+      </c>
+      <c r="C422">
+        <v>340</v>
+      </c>
+      <c r="D422">
+        <v>834920</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="str">
+        <v>07-04-2021</v>
+      </c>
+      <c r="B423">
+        <v>276</v>
+      </c>
+      <c r="C423">
+        <v>321</v>
+      </c>
+      <c r="D423">
+        <v>835196</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="str">
+        <v>08-04-2021</v>
+      </c>
+      <c r="B424">
+        <v>212</v>
+      </c>
+      <c r="C424">
+        <v>290</v>
+      </c>
+      <c r="D424">
+        <v>835408</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="str">
+        <v>09-04-2021</v>
+      </c>
+      <c r="B425">
+        <v>223</v>
+      </c>
+      <c r="C425">
+        <v>273</v>
+      </c>
+      <c r="D425">
+        <v>835631</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="str">
+        <v>10-04-2021</v>
+      </c>
+      <c r="B426">
+        <v>86</v>
+      </c>
+      <c r="C426">
+        <v>245</v>
+      </c>
+      <c r="D426">
+        <v>835717</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="str">
+        <v>11-04-2021</v>
+      </c>
+      <c r="B427">
+        <v>139</v>
+      </c>
+      <c r="C427">
+        <v>239</v>
+      </c>
+      <c r="D427">
+        <v>835856</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v>12-04-2021</v>
+      </c>
+      <c r="B428">
+        <v>221</v>
+      </c>
+      <c r="C428">
+        <v>231</v>
+      </c>
+      <c r="D428">
+        <v>836077</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v>13-04-2021</v>
+      </c>
+      <c r="B429">
+        <v>199</v>
+      </c>
+      <c r="C429">
+        <v>209</v>
+      </c>
+      <c r="D429">
+        <v>836276</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="str">
+        <v>14-04-2021</v>
+      </c>
+      <c r="B430">
+        <v>196</v>
+      </c>
+      <c r="C430">
+        <v>193</v>
+      </c>
+      <c r="D430">
+        <v>836472</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v>15-04-2021</v>
+      </c>
+      <c r="B431">
+        <v>95</v>
+      </c>
+      <c r="C431">
+        <v>182</v>
+      </c>
+      <c r="D431">
+        <v>836567</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="str">
+        <v>16-04-2021</v>
+      </c>
+      <c r="B432">
+        <v>109</v>
+      </c>
+      <c r="C432">
+        <v>165</v>
+      </c>
+      <c r="D432">
+        <v>836676</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="str">
+        <v>17-04-2021</v>
+      </c>
+      <c r="B433">
+        <v>83</v>
+      </c>
+      <c r="C433">
+        <v>149</v>
+      </c>
+      <c r="D433">
+        <v>836759</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="str">
+        <v>18-04-2021</v>
+      </c>
+      <c r="B434">
+        <v>141</v>
+      </c>
+      <c r="C434">
+        <v>148</v>
+      </c>
+      <c r="D434">
+        <v>836900</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v>19-04-2021</v>
+      </c>
+      <c r="B435">
+        <v>133</v>
+      </c>
+      <c r="C435">
+        <v>149</v>
+      </c>
+      <c r="D435">
+        <v>837033</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="str">
+        <v>20-04-2021</v>
+      </c>
+      <c r="B436">
+        <v>159</v>
+      </c>
+      <c r="C436">
+        <v>136</v>
+      </c>
+      <c r="D436">
+        <v>837192</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="str">
+        <v>21-04-2021</v>
+      </c>
+      <c r="B437">
+        <v>114</v>
+      </c>
+      <c r="C437">
+        <v>130</v>
+      </c>
+      <c r="D437">
+        <v>837306</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="str">
+        <v>22-04-2021</v>
+      </c>
+      <c r="B438">
+        <v>129</v>
+      </c>
+      <c r="C438">
+        <v>119</v>
+      </c>
+      <c r="D438">
+        <v>837435</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="str">
+        <v>23-04-2021</v>
+      </c>
+      <c r="B439">
+        <v>108</v>
+      </c>
+      <c r="C439">
+        <v>124</v>
+      </c>
+      <c r="D439">
+        <v>837543</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="str">
+        <v>24-04-2021</v>
+      </c>
+      <c r="B440">
+        <v>39</v>
+      </c>
+      <c r="C440">
+        <v>123</v>
+      </c>
+      <c r="D440">
+        <v>837582</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="str">
+        <v>25-04-2021</v>
+      </c>
+      <c r="B441">
+        <v>77</v>
+      </c>
+      <c r="C441">
+        <v>117</v>
+      </c>
+      <c r="D441">
+        <v>837659</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="str">
+        <v>26-04-2021</v>
+      </c>
+      <c r="B442">
+        <v>92</v>
+      </c>
+      <c r="C442">
+        <v>108</v>
+      </c>
+      <c r="D442">
+        <v>837751</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="str">
+        <v>27-04-2021</v>
+      </c>
+      <c r="B443">
+        <v>87</v>
+      </c>
+      <c r="C443">
+        <v>102</v>
+      </c>
+      <c r="D443">
+        <v>837838</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="str">
+        <v>28-04-2021</v>
+      </c>
+      <c r="B444">
+        <v>95</v>
+      </c>
+      <c r="C444">
+        <v>92</v>
+      </c>
+      <c r="D444">
+        <v>837933</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="str">
+        <v>29-04-2021</v>
+      </c>
+      <c r="B445">
+        <v>93</v>
+      </c>
+      <c r="C445">
+        <v>89</v>
+      </c>
+      <c r="D445">
+        <v>838026</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="str">
+        <v>30-04-2021</v>
+      </c>
+      <c r="B446">
+        <v>79</v>
+      </c>
+      <c r="C446">
+        <v>84</v>
+      </c>
+      <c r="D446">
+        <v>838105</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="str">
+        <v>01-05-2021</v>
+      </c>
+      <c r="B447">
+        <v>14</v>
+      </c>
+      <c r="C447">
+        <v>80</v>
+      </c>
+      <c r="D447">
+        <v>838119</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="str">
+        <v>02-05-2021</v>
+      </c>
+      <c r="B448">
+        <v>49</v>
+      </c>
+      <c r="C448">
+        <v>76</v>
+      </c>
+      <c r="D448">
+        <v>838168</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="str">
+        <v>03-05-2021</v>
+      </c>
+      <c r="B449">
+        <v>65</v>
+      </c>
+      <c r="C449">
+        <v>72</v>
+      </c>
+      <c r="D449">
+        <v>838233</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v>04-05-2021</v>
+      </c>
+      <c r="B450">
+        <v>63</v>
+      </c>
+      <c r="C450">
+        <v>68</v>
+      </c>
+      <c r="D450">
+        <v>838296</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="str">
+        <v>05-05-2021</v>
+      </c>
+      <c r="B451">
+        <v>68</v>
+      </c>
+      <c r="C451">
+        <v>65</v>
+      </c>
+      <c r="D451">
+        <v>838364</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="str">
+        <v>06-05-2021</v>
+      </c>
+      <c r="B452">
+        <v>48</v>
+      </c>
+      <c r="C452">
+        <v>61</v>
+      </c>
+      <c r="D452">
+        <v>838412</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="str">
+        <v>07-05-2021</v>
+      </c>
+      <c r="B453">
+        <v>33</v>
+      </c>
+      <c r="C453">
+        <v>55</v>
+      </c>
+      <c r="D453">
+        <v>838445</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="str">
+        <v>08-05-2021</v>
+      </c>
+      <c r="B454">
+        <v>16</v>
+      </c>
+      <c r="C454">
+        <v>48</v>
+      </c>
+      <c r="D454">
+        <v>838461</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="str">
+        <v>09-05-2021</v>
+      </c>
+      <c r="B455">
+        <v>33</v>
+      </c>
+      <c r="C455">
+        <v>48</v>
+      </c>
+      <c r="D455">
+        <v>838494</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="str">
+        <v>10-05-2021</v>
+      </c>
+      <c r="B456">
+        <v>51</v>
+      </c>
+      <c r="C456">
+        <v>46</v>
+      </c>
+      <c r="D456">
+        <v>838545</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="str">
+        <v>11-05-2021</v>
+      </c>
+      <c r="B457">
+        <v>34</v>
+      </c>
+      <c r="C457">
+        <v>44</v>
+      </c>
+      <c r="D457">
+        <v>838579</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="str">
+        <v>12-05-2021</v>
+      </c>
+      <c r="B458">
+        <v>27</v>
+      </c>
+      <c r="C458">
+        <v>40</v>
+      </c>
+      <c r="D458">
+        <v>838606</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="str">
+        <v>13-05-2021</v>
+      </c>
+      <c r="B459">
+        <v>30</v>
+      </c>
+      <c r="C459">
+        <v>34</v>
+      </c>
+      <c r="D459">
+        <v>838636</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="str">
+        <v>14-05-2021</v>
+      </c>
+      <c r="B460">
+        <v>27</v>
+      </c>
+      <c r="C460">
+        <v>32</v>
+      </c>
+      <c r="D460">
+        <v>838663</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="str">
+        <v>15-05-2021</v>
+      </c>
+      <c r="B461">
+        <v>20</v>
+      </c>
+      <c r="C461">
+        <v>31</v>
+      </c>
+      <c r="D461">
+        <v>838683</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="str">
+        <v>16-05-2021</v>
+      </c>
+      <c r="B462">
+        <v>29</v>
+      </c>
+      <c r="C462">
+        <v>31</v>
+      </c>
+      <c r="D462">
+        <v>838712</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="str">
+        <v>17-05-2021</v>
+      </c>
+      <c r="B463">
+        <v>15</v>
+      </c>
+      <c r="C463">
+        <v>31</v>
+      </c>
+      <c r="D463">
+        <v>838727</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="str">
+        <v>18-05-2021</v>
+      </c>
+      <c r="B464">
+        <v>22</v>
+      </c>
+      <c r="C464">
+        <v>26</v>
+      </c>
+      <c r="D464">
+        <v>838749</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="str">
+        <v>19-05-2021</v>
+      </c>
+      <c r="B465">
+        <v>55</v>
+      </c>
+      <c r="C465">
+        <v>24</v>
+      </c>
+      <c r="D465">
+        <v>838804</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="str">
+        <v>20-05-2021</v>
+      </c>
+      <c r="B466">
+        <v>33</v>
+      </c>
+      <c r="C466">
+        <v>28</v>
+      </c>
+      <c r="D466">
+        <v>838837</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="str">
+        <v>21-05-2021</v>
+      </c>
+      <c r="B467">
+        <v>22</v>
+      </c>
+      <c r="C467">
+        <v>28</v>
+      </c>
+      <c r="D467">
+        <v>838859</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="str">
+        <v>22-05-2021</v>
+      </c>
+      <c r="B468">
+        <v>12</v>
+      </c>
+      <c r="C468">
+        <v>28</v>
+      </c>
+      <c r="D468">
+        <v>838871</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="str">
+        <v>23-05-2021</v>
+      </c>
+      <c r="B469">
+        <v>26</v>
+      </c>
+      <c r="C469">
+        <v>26</v>
+      </c>
+      <c r="D469">
+        <v>838897</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="str">
+        <v>24-05-2021</v>
+      </c>
+      <c r="B470">
+        <v>28</v>
+      </c>
+      <c r="C470">
+        <v>26</v>
+      </c>
+      <c r="D470">
+        <v>838925</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="str">
+        <v>25-05-2021</v>
+      </c>
+      <c r="B471">
+        <v>22</v>
+      </c>
+      <c r="C471">
+        <v>28</v>
+      </c>
+      <c r="D471">
+        <v>838947</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="str">
+        <v>26-05-2021</v>
+      </c>
+      <c r="B472">
+        <v>14</v>
+      </c>
+      <c r="C472">
+        <v>28</v>
+      </c>
+      <c r="D472">
+        <v>838961</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="str">
+        <v>27-05-2021</v>
+      </c>
+      <c r="B473">
+        <v>14</v>
+      </c>
+      <c r="C473">
+        <v>22</v>
+      </c>
+      <c r="D473">
+        <v>838975</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="str">
+        <v>28-05-2021</v>
+      </c>
+      <c r="B474">
+        <v>18</v>
+      </c>
+      <c r="C474">
+        <v>19</v>
+      </c>
+      <c r="D474">
+        <v>838993</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="str">
+        <v>29-05-2021</v>
+      </c>
+      <c r="B475">
+        <v>12</v>
+      </c>
+      <c r="C475">
+        <v>19</v>
+      </c>
+      <c r="D475">
+        <v>839005</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="str">
+        <v>30-05-2021</v>
+      </c>
+      <c r="B476">
+        <v>3</v>
+      </c>
+      <c r="C476">
+        <v>19</v>
+      </c>
+      <c r="D476">
+        <v>839008</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="str">
+        <v>31-05-2021</v>
+      </c>
+      <c r="B477">
+        <v>14</v>
+      </c>
+      <c r="C477">
+        <v>15</v>
+      </c>
+      <c r="D477">
+        <v>839022</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="str">
+        <v>01-06-2021</v>
+      </c>
+      <c r="B478">
+        <v>35</v>
+      </c>
+      <c r="C478">
+        <v>13</v>
+      </c>
+      <c r="D478">
+        <v>839057</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="str">
+        <v>02-06-2021</v>
+      </c>
+      <c r="B479">
+        <v>13</v>
+      </c>
+      <c r="C479">
+        <v>15</v>
+      </c>
+      <c r="D479">
+        <v>839070</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="str">
+        <v>03-06-2021</v>
+      </c>
+      <c r="B480">
+        <v>10</v>
+      </c>
+      <c r="C480">
+        <v>15</v>
+      </c>
+      <c r="D480">
+        <v>839080</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="str">
+        <v>04-06-2021</v>
+      </c>
+      <c r="B481">
+        <v>31</v>
+      </c>
+      <c r="C481">
+        <v>15</v>
+      </c>
+      <c r="D481">
+        <v>839111</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="str">
+        <v>05-06-2021</v>
+      </c>
+      <c r="B482">
+        <v>5</v>
+      </c>
+      <c r="C482">
+        <v>16</v>
+      </c>
+      <c r="D482">
+        <v>839116</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="str">
+        <v>06-06-2021</v>
+      </c>
+      <c r="B483">
+        <v>4</v>
+      </c>
+      <c r="C483">
+        <v>15</v>
+      </c>
+      <c r="D483">
+        <v>839120</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="str">
+        <v>07-06-2021</v>
+      </c>
+      <c r="B484">
+        <v>6</v>
+      </c>
+      <c r="C484">
+        <v>16</v>
+      </c>
+      <c r="D484">
+        <v>839126</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="str">
+        <v>08-06-2021</v>
+      </c>
+      <c r="B485">
+        <v>30</v>
+      </c>
+      <c r="C485">
+        <v>14</v>
+      </c>
+      <c r="D485">
+        <v>839156</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="str">
+        <v>09-06-2021</v>
+      </c>
+      <c r="B486">
+        <v>6</v>
+      </c>
+      <c r="C486">
+        <v>14</v>
+      </c>
+      <c r="D486">
+        <v>839162</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="str">
+        <v>10-06-2021</v>
+      </c>
+      <c r="B487">
+        <v>18</v>
+      </c>
+      <c r="C487">
+        <v>13</v>
+      </c>
+      <c r="D487">
+        <v>839180</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="str">
+        <v>11-06-2021</v>
+      </c>
+      <c r="B488">
+        <v>18</v>
+      </c>
+      <c r="C488">
+        <v>14</v>
+      </c>
+      <c r="D488">
+        <v>839198</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="str">
+        <v>12-06-2021</v>
+      </c>
+      <c r="B489">
+        <v>5</v>
+      </c>
+      <c r="C489">
+        <v>12</v>
+      </c>
+      <c r="D489">
+        <v>839203</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="str">
+        <v>13-06-2021</v>
+      </c>
+      <c r="B490">
+        <v>3</v>
+      </c>
+      <c r="C490">
+        <v>12</v>
+      </c>
+      <c r="D490">
+        <v>839206</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="str">
+        <v>14-06-2021</v>
+      </c>
+      <c r="B491">
+        <v>26</v>
+      </c>
+      <c r="C491">
+        <v>12</v>
+      </c>
+      <c r="D491">
+        <v>839232</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="str">
+        <v>15-06-2021</v>
+      </c>
+      <c r="B492">
+        <v>26</v>
+      </c>
+      <c r="C492">
+        <v>15</v>
+      </c>
+      <c r="D492">
+        <v>839258</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="str">
+        <v>16-06-2021</v>
+      </c>
+      <c r="B493">
+        <v>13</v>
+      </c>
+      <c r="C493">
+        <v>14</v>
+      </c>
+      <c r="D493">
+        <v>839271</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="str">
+        <v>17-06-2021</v>
+      </c>
+      <c r="B494">
+        <v>26</v>
+      </c>
+      <c r="C494">
+        <v>15</v>
+      </c>
+      <c r="D494">
+        <v>839297</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="str">
+        <v>18-06-2021</v>
+      </c>
+      <c r="B495">
+        <v>35</v>
+      </c>
+      <c r="C495">
+        <v>16</v>
+      </c>
+      <c r="D495">
+        <v>839332</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="str">
+        <v>19-06-2021</v>
+      </c>
+      <c r="B496">
+        <v>46</v>
+      </c>
+      <c r="C496">
+        <v>19</v>
+      </c>
+      <c r="D496">
+        <v>839378</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="str">
+        <v>20-06-2021</v>
+      </c>
+      <c r="B497">
+        <v>49</v>
+      </c>
+      <c r="C497">
+        <v>25</v>
+      </c>
+      <c r="D497">
+        <v>839427</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="str">
+        <v>21-06-2021</v>
+      </c>
+      <c r="B498">
+        <v>125</v>
+      </c>
+      <c r="C498">
+        <v>31</v>
+      </c>
+      <c r="D498">
+        <v>839552</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="str">
+        <v>22-06-2021</v>
+      </c>
+      <c r="B499">
+        <v>110</v>
+      </c>
+      <c r="C499">
+        <v>45</v>
+      </c>
+      <c r="D499">
+        <v>839662</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="str">
+        <v>23-06-2021</v>
+      </c>
+      <c r="B500">
+        <v>140</v>
+      </c>
+      <c r="C500">
+        <v>57</v>
+      </c>
+      <c r="D500">
+        <v>839802</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="str">
+        <v>24-06-2021</v>
+      </c>
+      <c r="B501">
+        <v>229</v>
+      </c>
+      <c r="C501">
+        <v>75</v>
+      </c>
+      <c r="D501">
+        <v>840031</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="str">
+        <v>25-06-2021</v>
+      </c>
+      <c r="B502">
+        <v>230</v>
+      </c>
+      <c r="C502">
+        <v>104</v>
+      </c>
+      <c r="D502">
+        <v>840261</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="str">
+        <v>26-06-2021</v>
+      </c>
+      <c r="B503">
+        <v>116</v>
+      </c>
+      <c r="C503">
+        <v>132</v>
+      </c>
+      <c r="D503">
+        <v>840377</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="str">
+        <v>27-06-2021</v>
+      </c>
+      <c r="B504">
+        <v>145</v>
+      </c>
+      <c r="C504">
+        <v>142</v>
+      </c>
+      <c r="D504">
+        <v>840522</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="str">
+        <v>28-06-2021</v>
+      </c>
+      <c r="B505">
+        <v>288</v>
+      </c>
+      <c r="C505">
+        <v>156</v>
+      </c>
+      <c r="D505">
+        <v>840810</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="str">
+        <v>29-06-2021</v>
+      </c>
+      <c r="B506">
+        <v>294</v>
+      </c>
+      <c r="C506">
+        <v>179</v>
+      </c>
+      <c r="D506">
+        <v>841104</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="str">
+        <v>30-06-2021</v>
+      </c>
+      <c r="B507">
+        <v>310</v>
+      </c>
+      <c r="C507">
+        <v>206</v>
+      </c>
+      <c r="D507">
+        <v>841414</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="str">
+        <v>01-07-2021</v>
+      </c>
+      <c r="B508">
+        <v>297</v>
+      </c>
+      <c r="C508">
+        <v>230</v>
+      </c>
+      <c r="D508">
+        <v>841711</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="str">
+        <v>02-07-2021</v>
+      </c>
+      <c r="B509">
+        <v>328</v>
+      </c>
+      <c r="C509">
+        <v>240</v>
+      </c>
+      <c r="D509">
+        <v>842039</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="str">
+        <v>03-07-2021</v>
+      </c>
+      <c r="B510">
+        <v>187</v>
+      </c>
+      <c r="C510">
+        <v>254</v>
+      </c>
+      <c r="D510">
+        <v>842226</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="str">
+        <v>04-07-2021</v>
+      </c>
+      <c r="B511">
+        <v>346</v>
+      </c>
+      <c r="C511">
+        <v>264</v>
+      </c>
+      <c r="D511">
+        <v>842572</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="str">
+        <v>05-07-2021</v>
+      </c>
+      <c r="B512">
+        <v>503</v>
+      </c>
+      <c r="C512">
+        <v>292</v>
+      </c>
+      <c r="D512">
+        <v>843075</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="str">
+        <v>06-07-2021</v>
+      </c>
+      <c r="B513">
+        <v>527</v>
+      </c>
+      <c r="C513">
+        <v>323</v>
+      </c>
+      <c r="D513">
+        <v>843602</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="str">
+        <v>07-07-2021</v>
+      </c>
+      <c r="B514">
+        <v>525</v>
+      </c>
+      <c r="C514">
+        <v>356</v>
+      </c>
+      <c r="D514">
+        <v>844127</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="str">
+        <v>08-07-2021</v>
+      </c>
+      <c r="B515">
+        <v>466</v>
+      </c>
+      <c r="C515">
+        <v>387</v>
+      </c>
+      <c r="D515">
+        <v>844593</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="str">
+        <v>09-07-2021</v>
+      </c>
+      <c r="B516">
+        <v>534</v>
+      </c>
+      <c r="C516">
+        <v>411</v>
+      </c>
+      <c r="D516">
+        <v>845127</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="str">
+        <v>10-07-2021</v>
+      </c>
+      <c r="B517">
+        <v>262</v>
+      </c>
+      <c r="C517">
+        <v>441</v>
+      </c>
+      <c r="D517">
+        <v>845389</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="str">
+        <v>11-07-2021</v>
+      </c>
+      <c r="B518">
+        <v>443</v>
+      </c>
+      <c r="C518">
+        <v>451</v>
+      </c>
+      <c r="D518">
+        <v>845832</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="str">
+        <v>12-07-2021</v>
+      </c>
+      <c r="B519">
+        <v>762</v>
+      </c>
+      <c r="C519">
+        <v>465</v>
+      </c>
+      <c r="D519">
+        <v>846594</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="str">
+        <v>13-07-2021</v>
+      </c>
+      <c r="B520">
+        <v>746</v>
+      </c>
+      <c r="C520">
+        <v>502</v>
+      </c>
+      <c r="D520">
+        <v>847340</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="str">
+        <v>14-07-2021</v>
+      </c>
+      <c r="B521">
+        <v>771</v>
+      </c>
+      <c r="C521">
+        <v>534</v>
+      </c>
+      <c r="D521">
+        <v>848111</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="str">
+        <v>15-07-2021</v>
+      </c>
+      <c r="B522">
+        <v>863</v>
+      </c>
+      <c r="C522">
+        <v>569</v>
+      </c>
+      <c r="D522">
+        <v>848974</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="str">
+        <v>16-07-2021</v>
+      </c>
+      <c r="B523">
+        <v>1130</v>
+      </c>
+      <c r="C523">
+        <v>625</v>
+      </c>
+      <c r="D523">
+        <v>850104</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="str">
+        <v>17-07-2021</v>
+      </c>
+      <c r="B524">
+        <v>432</v>
+      </c>
+      <c r="C524">
+        <v>711</v>
+      </c>
+      <c r="D524">
+        <v>850536</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="str">
+        <v>18-07-2021</v>
+      </c>
+      <c r="B525">
+        <v>837</v>
+      </c>
+      <c r="C525">
+        <v>735</v>
+      </c>
+      <c r="D525">
+        <v>851373</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="str">
+        <v>19-07-2021</v>
+      </c>
+      <c r="B526">
+        <v>1385</v>
+      </c>
+      <c r="C526">
+        <v>791</v>
+      </c>
+      <c r="D526">
+        <v>852758</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="str">
+        <v>20-07-2021</v>
+      </c>
+      <c r="B527">
+        <v>1410</v>
+      </c>
+      <c r="C527">
+        <v>880</v>
+      </c>
+      <c r="D527">
+        <v>854168</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="str">
+        <v>21-07-2021</v>
+      </c>
+      <c r="B528">
+        <v>1347</v>
+      </c>
+      <c r="C528">
+        <v>975</v>
+      </c>
+      <c r="D528">
+        <v>855515</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="str">
+        <v>22-07-2021</v>
+      </c>
+      <c r="B529">
+        <v>1284</v>
+      </c>
+      <c r="C529">
+        <v>1057</v>
+      </c>
+      <c r="D529">
+        <v>856799</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="str">
+        <v>23-07-2021</v>
+      </c>
+      <c r="B530">
+        <v>1440</v>
+      </c>
+      <c r="C530">
+        <v>1117</v>
+      </c>
+      <c r="D530">
+        <v>858239</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="str">
+        <v>24-07-2021</v>
+      </c>
+      <c r="B531">
+        <v>972</v>
+      </c>
+      <c r="C531">
+        <v>1162</v>
+      </c>
+      <c r="D531">
+        <v>859211</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="str">
+        <v>25-07-2021</v>
+      </c>
+      <c r="B532">
+        <v>1416</v>
+      </c>
+      <c r="C532">
+        <v>1239</v>
+      </c>
+      <c r="D532">
+        <v>860627</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="str">
+        <v>26-07-2021</v>
+      </c>
+      <c r="B533">
+        <v>2135</v>
+      </c>
+      <c r="C533">
+        <v>1322</v>
+      </c>
+      <c r="D533">
+        <v>862762</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="str">
+        <v>27-07-2021</v>
+      </c>
+      <c r="B534">
+        <v>2286</v>
+      </c>
+      <c r="C534">
+        <v>1429</v>
+      </c>
+      <c r="D534">
+        <v>865048</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="str">
+        <v>28-07-2021</v>
+      </c>
+      <c r="B535">
+        <v>2190</v>
+      </c>
+      <c r="C535">
+        <v>1554</v>
+      </c>
+      <c r="D535">
+        <v>867238</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="str">
+        <v>29-07-2021</v>
+      </c>
+      <c r="B536">
+        <v>2176</v>
+      </c>
+      <c r="C536">
+        <v>1674</v>
+      </c>
+      <c r="D536">
+        <v>869414</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="str">
+        <v>30-07-2021</v>
+      </c>
+      <c r="B537">
+        <v>2442</v>
+      </c>
+      <c r="C537">
+        <v>1802</v>
+      </c>
+      <c r="D537">
+        <v>871856</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="str">
+        <v>31-07-2021</v>
+      </c>
+      <c r="B538">
+        <v>2098</v>
+      </c>
+      <c r="C538">
+        <v>1945</v>
+      </c>
+      <c r="D538">
+        <v>873954</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="str">
+        <v>01-08-2021</v>
+      </c>
+      <c r="B539">
+        <v>2124</v>
+      </c>
+      <c r="C539">
+        <v>2106</v>
+      </c>
+      <c r="D539">
+        <v>876078</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="str">
+        <v>02-08-2021</v>
+      </c>
+      <c r="B540">
+        <v>3859</v>
+      </c>
+      <c r="C540">
+        <v>2207</v>
+      </c>
+      <c r="D540">
+        <v>879937</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="str">
+        <v>03-08-2021</v>
+      </c>
+      <c r="B541">
+        <v>3312</v>
+      </c>
+      <c r="C541">
+        <v>2453</v>
+      </c>
+      <c r="D541">
+        <v>883249</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="str">
+        <v>04-08-2021</v>
+      </c>
+      <c r="B542">
+        <v>3508</v>
+      </c>
+      <c r="C542">
+        <v>2600</v>
+      </c>
+      <c r="D542">
+        <v>886757</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="str">
+        <v>05-08-2021</v>
+      </c>
+      <c r="B543">
+        <v>3882</v>
+      </c>
+      <c r="C543">
+        <v>2788</v>
+      </c>
+      <c r="D543">
+        <v>890639</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="str">
+        <v>06-08-2021</v>
+      </c>
+      <c r="B544">
+        <v>3887</v>
+      </c>
+      <c r="C544">
+        <v>3032</v>
+      </c>
+      <c r="D544">
+        <v>894526</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="str">
+        <v>07-08-2021</v>
+      </c>
+      <c r="B545">
+        <v>2931</v>
+      </c>
+      <c r="C545">
+        <v>3238</v>
+      </c>
+      <c r="D545">
+        <v>897457</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="str">
+        <v>08-08-2021</v>
+      </c>
+      <c r="B546">
+        <v>3443</v>
+      </c>
+      <c r="C546">
+        <v>3357</v>
+      </c>
+      <c r="D546">
+        <v>900900</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="str">
+        <v>09-08-2021</v>
+      </c>
+      <c r="B547">
+        <v>6375</v>
+      </c>
+      <c r="C547">
+        <v>3546</v>
+      </c>
+      <c r="D547">
+        <v>907275</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="str">
+        <v>10-08-2021</v>
+      </c>
+      <c r="B548">
+        <v>5855</v>
+      </c>
+      <c r="C548">
+        <v>3905</v>
+      </c>
+      <c r="D548">
+        <v>913130</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="str">
+        <v>11-08-2021</v>
+      </c>
+      <c r="B549">
+        <v>6023</v>
+      </c>
+      <c r="C549">
+        <v>4268</v>
+      </c>
+      <c r="D549">
+        <v>919153</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="str">
+        <v>12-08-2021</v>
+      </c>
+      <c r="B550">
+        <v>6146</v>
+      </c>
+      <c r="C550">
+        <v>4628</v>
+      </c>
+      <c r="D550">
+        <v>925299</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="str">
+        <v>13-08-2021</v>
+      </c>
+      <c r="B551">
+        <v>5952</v>
+      </c>
+      <c r="C551">
+        <v>4951</v>
+      </c>
+      <c r="D551">
+        <v>931251</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="str">
+        <v>14-08-2021</v>
+      </c>
+      <c r="B552">
+        <v>4219</v>
+      </c>
+      <c r="C552">
+        <v>5246</v>
+      </c>
+      <c r="D552">
+        <v>935470</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="str">
+        <v>15-08-2021</v>
+      </c>
+      <c r="B553">
+        <v>5193</v>
+      </c>
+      <c r="C553">
+        <v>5430</v>
+      </c>
+      <c r="D553">
+        <v>940663</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="str">
+        <v>16-08-2021</v>
+      </c>
+      <c r="B554">
+        <v>8789</v>
+      </c>
+      <c r="C554">
+        <v>5680</v>
+      </c>
+      <c r="D554">
+        <v>949452</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="str">
+        <v>17-08-2021</v>
+      </c>
+      <c r="B555">
+        <v>7963</v>
+      </c>
+      <c r="C555">
+        <v>6025</v>
+      </c>
+      <c r="D555">
+        <v>957415</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="str">
+        <v>18-08-2021</v>
+      </c>
+      <c r="B556">
+        <v>8018</v>
+      </c>
+      <c r="C556">
+        <v>6326</v>
+      </c>
+      <c r="D556">
+        <v>965433</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="str">
+        <v>19-08-2021</v>
+      </c>
+      <c r="B557">
+        <v>7815</v>
+      </c>
+      <c r="C557">
+        <v>6611</v>
+      </c>
+      <c r="D557">
+        <v>973248</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="str">
+        <v>20-08-2021</v>
+      </c>
+      <c r="B558">
+        <v>7902</v>
+      </c>
+      <c r="C558">
+        <v>6849</v>
+      </c>
+      <c r="D558">
+        <v>981150</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="str">
+        <v>21-08-2021</v>
+      </c>
+      <c r="B559">
+        <v>5415</v>
+      </c>
+      <c r="C559">
+        <v>7128</v>
+      </c>
+      <c r="D559">
+        <v>986565</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="str">
+        <v>22-08-2021</v>
+      </c>
+      <c r="B560">
+        <v>6583</v>
+      </c>
+      <c r="C560">
+        <v>7299</v>
+      </c>
+      <c r="D560">
+        <v>993148</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="str">
+        <v>23-08-2021</v>
+      </c>
+      <c r="B561">
+        <v>10034</v>
+      </c>
+      <c r="C561">
+        <v>7497</v>
+      </c>
+      <c r="D561">
+        <v>1003182</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="str">
+        <v>24-08-2021</v>
+      </c>
+      <c r="B562">
+        <v>10081</v>
+      </c>
+      <c r="C562">
+        <v>7675</v>
+      </c>
+      <c r="D562">
+        <v>1013263</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="str">
+        <v>25-08-2021</v>
+      </c>
+      <c r="B563">
+        <v>9223</v>
+      </c>
+      <c r="C563">
+        <v>7978</v>
+      </c>
+      <c r="D563">
+        <v>1022486</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="str">
+        <v>26-08-2021</v>
+      </c>
+      <c r="B564">
+        <v>9097</v>
+      </c>
+      <c r="C564">
+        <v>8150</v>
+      </c>
+      <c r="D564">
+        <v>1031583</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="str">
+        <v>27-08-2021</v>
+      </c>
+      <c r="B565">
+        <v>8683</v>
+      </c>
+      <c r="C565">
+        <v>8333</v>
+      </c>
+      <c r="D565">
+        <v>1040266</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="str">
+        <v>28-08-2021</v>
+      </c>
+      <c r="B566">
+        <v>7280</v>
+      </c>
+      <c r="C566">
+        <v>8445</v>
+      </c>
+      <c r="D566">
+        <v>1047546</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="str">
+        <v>29-08-2021</v>
+      </c>
+      <c r="B567">
+        <v>6783</v>
+      </c>
+      <c r="C567">
+        <v>8711</v>
+      </c>
+      <c r="D567">
+        <v>1054329</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="str">
+        <v>30-08-2021</v>
+      </c>
+      <c r="B568">
+        <v>11150</v>
+      </c>
+      <c r="C568">
+        <v>8740</v>
+      </c>
+      <c r="D568">
+        <v>1065479</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="str">
+        <v>31-08-2021</v>
+      </c>
+      <c r="B569">
+        <v>10445</v>
+      </c>
+      <c r="C569">
+        <v>8899</v>
+      </c>
+      <c r="D569">
+        <v>1075924</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="str">
+        <v>01-09-2021</v>
+      </c>
+      <c r="B570">
+        <v>11292</v>
+      </c>
+      <c r="C570">
+        <v>8951</v>
+      </c>
+      <c r="D570">
+        <v>1087216</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="str">
+        <v>02-09-2021</v>
+      </c>
+      <c r="B571">
+        <v>11334</v>
+      </c>
+      <c r="C571">
+        <v>9247</v>
+      </c>
+      <c r="D571">
+        <v>1098550</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="str">
+        <v>03-09-2021</v>
+      </c>
+      <c r="B572">
+        <v>9892</v>
+      </c>
+      <c r="C572">
+        <v>9566</v>
+      </c>
+      <c r="D572">
+        <v>1108442</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="str">
+        <v>04-09-2021</v>
+      </c>
+      <c r="B573">
+        <v>5036</v>
+      </c>
+      <c r="C573">
+        <v>9739</v>
+      </c>
+      <c r="D573">
+        <v>1113478</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="str">
+        <v>05-09-2021</v>
+      </c>
+      <c r="B574">
+        <v>5863</v>
+      </c>
+      <c r="C574">
+        <v>9418</v>
+      </c>
+      <c r="D574">
+        <v>1119341</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="str">
+        <v>06-09-2021</v>
+      </c>
+      <c r="B575">
+        <v>10863</v>
+      </c>
+      <c r="C575">
+        <v>9287</v>
+      </c>
+      <c r="D575">
+        <v>1130204</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="str">
+        <v>07-09-2021</v>
+      </c>
+      <c r="B576">
+        <v>6868</v>
+      </c>
+      <c r="C576">
+        <v>9246</v>
+      </c>
+      <c r="D576">
+        <v>1137072</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="str">
+        <v>08-09-2021</v>
+      </c>
+      <c r="B577">
+        <v>3319</v>
+      </c>
+      <c r="C577">
+        <v>8735</v>
+      </c>
+      <c r="D577">
+        <v>1140391</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="str">
+        <v>09-09-2021</v>
+      </c>
+      <c r="B578">
+        <v>7949</v>
+      </c>
+      <c r="C578">
+        <v>7596</v>
+      </c>
+      <c r="D578">
+        <v>1148340</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="str">
+        <v>10-09-2021</v>
+      </c>
+      <c r="B579">
+        <v>9884</v>
+      </c>
+      <c r="C579">
+        <v>7112</v>
+      </c>
+      <c r="D579">
+        <v>1158224</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="str">
+        <v>11-09-2021</v>
+      </c>
+      <c r="B580">
+        <v>10280</v>
+      </c>
+      <c r="C580">
+        <v>7111</v>
+      </c>
+      <c r="D580">
+        <v>1168504</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="str">
+        <v>12-09-2021</v>
+      </c>
+      <c r="B581">
+        <v>7821</v>
+      </c>
+      <c r="C581">
+        <v>7860</v>
+      </c>
+      <c r="D581">
+        <v>1176325</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="str">
+        <v>13-09-2021</v>
+      </c>
+      <c r="B582">
+        <v>10951</v>
+      </c>
+      <c r="C582">
+        <v>8140</v>
+      </c>
+      <c r="D582">
+        <v>1187276</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="str">
+        <v>14-09-2021</v>
+      </c>
+      <c r="B583">
+        <v>9854</v>
+      </c>
+      <c r="C583">
+        <v>8153</v>
+      </c>
+      <c r="D583">
+        <v>1197130</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="str">
+        <v>15-09-2021</v>
+      </c>
+      <c r="B584">
+        <v>8863</v>
+      </c>
+      <c r="C584">
+        <v>8579</v>
+      </c>
+      <c r="D584">
+        <v>1205993</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="str">
+        <v>16-09-2021</v>
+      </c>
+      <c r="B585">
+        <v>3284</v>
+      </c>
+      <c r="C585">
+        <v>9371</v>
+      </c>
+      <c r="D585">
+        <v>1209277</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="str">
+        <v>17-09-2021</v>
+      </c>
+      <c r="B586">
+        <v>5023</v>
+      </c>
+      <c r="C586">
+        <v>8705</v>
+      </c>
+      <c r="D586">
+        <v>1214300</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="str">
+        <v>18-09-2021</v>
+      </c>
+      <c r="B587">
+        <v>8609</v>
+      </c>
+      <c r="C587">
+        <v>8010</v>
+      </c>
+      <c r="D587">
+        <v>1222909</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="str">
+        <v>19-09-2021</v>
+      </c>
+      <c r="B588">
+        <v>6547</v>
+      </c>
+      <c r="C588">
+        <v>7772</v>
+      </c>
+      <c r="D588">
+        <v>1229456</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="str">
+        <v>20-09-2021</v>
+      </c>
+      <c r="B589">
+        <v>8818</v>
+      </c>
+      <c r="C589">
+        <v>7590</v>
+      </c>
+      <c r="D589">
+        <v>1238274</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="str">
+        <v>21-09-2021</v>
+      </c>
+      <c r="B590">
+        <v>4827</v>
+      </c>
+      <c r="C590">
+        <v>7285</v>
+      </c>
+      <c r="D590">
+        <v>1243101</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="str">
+        <v>22-09-2021</v>
+      </c>
+      <c r="B591">
+        <v>6028</v>
+      </c>
+      <c r="C591">
+        <v>6567</v>
+      </c>
+      <c r="D591">
+        <v>1249129</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="str">
+        <v>23-09-2021</v>
+      </c>
+      <c r="B592">
+        <v>6450</v>
+      </c>
+      <c r="C592">
+        <v>6162</v>
+      </c>
+      <c r="D592">
+        <v>1255579</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="str">
+        <v>24-09-2021</v>
+      </c>
+      <c r="B593">
+        <v>4987</v>
+      </c>
+      <c r="C593">
+        <v>6614</v>
+      </c>
+      <c r="D593">
+        <v>1260566</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="str">
+        <v>25-09-2021</v>
+      </c>
+      <c r="B594">
+        <v>2650</v>
+      </c>
+      <c r="C594">
+        <v>6609</v>
+      </c>
+      <c r="D594">
+        <v>1263216</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="str">
+        <v>26-09-2021</v>
+      </c>
+      <c r="B595">
+        <v>3873</v>
+      </c>
+      <c r="C595">
+        <v>5758</v>
+      </c>
+      <c r="D595">
+        <v>1267089</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="str">
+        <v>27-09-2021</v>
+      </c>
+      <c r="B596">
+        <v>5240</v>
+      </c>
+      <c r="C596">
+        <v>5376</v>
+      </c>
+      <c r="D596">
+        <v>1272329</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="str">
+        <v>28-09-2021</v>
+      </c>
+      <c r="B597">
+        <v>2438</v>
+      </c>
+      <c r="C597">
+        <v>4865</v>
+      </c>
+      <c r="D597">
+        <v>1274767</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="str">
+        <v>29-09-2021</v>
+      </c>
+      <c r="B598">
+        <v>3630</v>
+      </c>
+      <c r="C598">
+        <v>4523</v>
+      </c>
+      <c r="D598">
+        <v>1278397</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="str">
+        <v>30-09-2021</v>
+      </c>
+      <c r="B599">
+        <v>4393</v>
+      </c>
+      <c r="C599">
+        <v>4181</v>
+      </c>
+      <c r="D599">
+        <v>1282790</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="str">
+        <v>01-10-2021</v>
+      </c>
+      <c r="B600">
+        <v>3622</v>
+      </c>
+      <c r="C600">
+        <v>3887</v>
+      </c>
+      <c r="D600">
+        <v>1286412</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="str">
+        <v>02-10-2021</v>
+      </c>
+      <c r="B601">
+        <v>1739</v>
+      </c>
+      <c r="C601">
+        <v>3692</v>
+      </c>
+      <c r="D601">
+        <v>1288151</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="str">
+        <v>03-10-2021</v>
+      </c>
+      <c r="B602">
+        <v>2700</v>
+      </c>
+      <c r="C602">
+        <v>3562</v>
+      </c>
+      <c r="D602">
+        <v>1290851</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="str">
+        <v>04-10-2021</v>
+      </c>
+      <c r="B603">
+        <v>3273</v>
+      </c>
+      <c r="C603">
+        <v>3394</v>
+      </c>
+      <c r="D603">
+        <v>1294124</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="str">
+        <v>05-10-2021</v>
+      </c>
+      <c r="B604">
+        <v>2551</v>
+      </c>
+      <c r="C604">
+        <v>3113</v>
+      </c>
+      <c r="D604">
+        <v>1296675</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="str">
+        <v>06-10-2021</v>
+      </c>
+      <c r="B605">
+        <v>2424</v>
+      </c>
+      <c r="C605">
+        <v>3129</v>
+      </c>
+      <c r="D605">
+        <v>1299099</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="str">
+        <v>07-10-2021</v>
+      </c>
+      <c r="B606">
+        <v>2117</v>
+      </c>
+      <c r="C606">
+        <v>2957</v>
+      </c>
+      <c r="D606">
+        <v>1301216</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="str">
+        <v>08-10-2021</v>
+      </c>
+      <c r="B607">
+        <v>2023</v>
+      </c>
+      <c r="C607">
+        <v>2632</v>
+      </c>
+      <c r="D607">
+        <v>1303239</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="str">
+        <v>09-10-2021</v>
+      </c>
+      <c r="B608">
+        <v>1039</v>
+      </c>
+      <c r="C608">
+        <v>2403</v>
+      </c>
+      <c r="D608">
+        <v>1304278</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="str">
+        <v>10-10-2021</v>
+      </c>
+      <c r="B609">
+        <v>1492</v>
+      </c>
+      <c r="C609">
+        <v>2303</v>
+      </c>
+      <c r="D609">
+        <v>1305770</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="str">
+        <v>11-10-2021</v>
+      </c>
+      <c r="B610">
+        <v>2344</v>
+      </c>
+      <c r="C610">
+        <v>2131</v>
+      </c>
+      <c r="D610">
+        <v>1308114</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="str">
+        <v>12-10-2021</v>
+      </c>
+      <c r="B611">
+        <v>1817</v>
+      </c>
+      <c r="C611">
+        <v>1998</v>
+      </c>
+      <c r="D611">
+        <v>1309931</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="str">
+        <v>13-10-2021</v>
+      </c>
+      <c r="B612">
+        <v>1770</v>
+      </c>
+      <c r="C612">
+        <v>1893</v>
+      </c>
+      <c r="D612">
+        <v>1311701</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="str">
+        <v>14-10-2021</v>
+      </c>
+      <c r="B613">
+        <v>1346</v>
+      </c>
+      <c r="C613">
+        <v>1800</v>
+      </c>
+      <c r="D613">
+        <v>1313047</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="str">
+        <v>15-10-2021</v>
+      </c>
+      <c r="B614">
+        <v>1573</v>
+      </c>
+      <c r="C614">
+        <v>1690</v>
+      </c>
+      <c r="D614">
+        <v>1314620</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="str">
+        <v>16-10-2021</v>
+      </c>
+      <c r="B615">
+        <v>740</v>
+      </c>
+      <c r="C615">
+        <v>1625</v>
+      </c>
+      <c r="D615">
+        <v>1315360</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="str">
+        <v>17-10-2021</v>
+      </c>
+      <c r="B616">
+        <v>1223</v>
+      </c>
+      <c r="C616">
+        <v>1583</v>
+      </c>
+      <c r="D616">
+        <v>1316583</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="str">
+        <v>18-10-2021</v>
+      </c>
+      <c r="B617">
+        <v>1501</v>
+      </c>
+      <c r="C617">
+        <v>1544</v>
+      </c>
+      <c r="D617">
+        <v>1318084</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="str">
+        <v>19-10-2021</v>
+      </c>
+      <c r="B618">
+        <v>1147</v>
+      </c>
+      <c r="C618">
+        <v>1424</v>
+      </c>
+      <c r="D618">
+        <v>1319231</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="str">
+        <v>20-10-2021</v>
+      </c>
+      <c r="B619">
+        <v>1037</v>
+      </c>
+      <c r="C619">
+        <v>1328</v>
+      </c>
+      <c r="D619">
+        <v>1320268</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="str">
+        <v>21-10-2021</v>
+      </c>
+      <c r="B620">
+        <v>993</v>
+      </c>
+      <c r="C620">
+        <v>1223</v>
+      </c>
+      <c r="D620">
+        <v>1321261</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="str">
+        <v>22-10-2021</v>
+      </c>
+      <c r="B621">
+        <v>981</v>
+      </c>
+      <c r="C621">
+        <v>1173</v>
+      </c>
+      <c r="D621">
+        <v>1322242</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="str">
+        <v>23-10-2021</v>
+      </c>
+      <c r="B622">
+        <v>332</v>
+      </c>
+      <c r="C622">
+        <v>1088</v>
+      </c>
+      <c r="D622">
+        <v>1322574</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="str">
+        <v>24-10-2021</v>
+      </c>
+      <c r="B623">
+        <v>839</v>
+      </c>
+      <c r="C623">
+        <v>1030</v>
+      </c>
+      <c r="D623">
+        <v>1323413</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="str">
         <v>25-10-2021</v>
       </c>
-      <c r="B32">
-        <v>114</v>
-      </c>
-      <c r="C32">
-        <v>971</v>
-      </c>
-      <c r="D32">
-        <v>1323516</v>
+      <c r="B624">
+        <v>866</v>
+      </c>
+      <c r="C624">
+        <v>975</v>
+      </c>
+      <c r="D624">
+        <v>1324279</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="str">
+        <v>26-10-2021</v>
+      </c>
+      <c r="B625">
+        <v>172</v>
+      </c>
+      <c r="C625">
+        <v>885</v>
+      </c>
+      <c r="D625">
+        <v>1324451</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D32"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D625"/>
   </ignoredErrors>
 </worksheet>
 </file>